--- a/Civilworks cost/IMED/Imed_calculation/Monthly_Expenditure_2019_20.xlsx
+++ b/Civilworks cost/IMED/Imed_calculation/Monthly_Expenditure_2019_20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DPP_ALLOC" sheetId="41" r:id="rId1"/>
@@ -2833,19 +2833,19 @@
       <selection activeCell="G2" sqref="G2:G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="37" customWidth="1"/>
     <col min="5" max="5" width="9" style="37" customWidth="1"/>
     <col min="6" max="6" width="18" style="37" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="37" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="37"/>
+    <col min="7" max="7" width="11.6640625" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="161" t="s">
         <v>196</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="140">
         <v>3111302</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="140">
         <v>3111327</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="140">
         <v>3111338</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="140">
         <v>3241101</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="140">
         <v>3211129</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="142" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="142" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="140">
         <v>3821103</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>2596.27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="140">
         <v>3211119</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="140">
         <v>3211120</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="142" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="140">
         <v>3211117</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="140">
         <v>3221104</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="140">
         <v>3211115</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="140">
         <v>3211113</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="140">
         <v>3243102</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="140">
         <v>3243101</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="140">
         <v>3221108</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="140">
         <v>3255102</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="140">
         <v>3255104</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="140">
         <v>3211127</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="140">
         <v>3231201</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>238.54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="142" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="142" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="140">
         <v>3231201</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>398.41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="142" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="142" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A22" s="140">
         <v>3231201</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>2533.34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="142" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="142" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="140">
         <v>3231201</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>1321.6799999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="140">
         <v>3211109</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="140">
         <v>3256103</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="140">
         <v>3257101</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>7901.4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="336">
         <v>3111332</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="336"/>
       <c r="B28" s="34" t="s">
         <v>144</v>
@@ -3412,7 +3412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="336"/>
       <c r="B29" s="34" t="s">
         <v>145</v>
@@ -3430,7 +3430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="140">
         <v>3257104</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="140">
         <v>3255101</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="142" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="140">
         <v>3256101</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="145">
         <v>3258101</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="145">
         <v>3258102</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="145">
         <v>3258103</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="145">
         <v>3258105</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="145">
         <v>3258107</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="145">
         <v>3258106</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="145">
         <v>3258105</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="150" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="150" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="148">
         <v>3258114</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>362.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="145">
         <v>3258128</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="145">
         <v>3258107</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.3">
       <c r="A43" s="152">
         <v>4112101</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>702.5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="152">
         <v>4112101</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>68.25</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="154">
         <v>4112102</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="337">
         <v>4112316</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="337"/>
       <c r="B47" s="34" t="s">
         <v>170</v>
@@ -3790,7 +3790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="154">
         <v>4112304</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="154">
         <v>4112304</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="154">
         <v>4112304</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A51" s="154">
         <v>4112202</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="154">
         <v>4112202</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="154">
         <v>4112202</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="154">
         <v>4112202</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="152">
         <v>4112314</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="152">
         <v>4112303</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="155">
         <v>4141101</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="158">
         <v>4111306</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="158">
         <v>4111307</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="158">
         <v>4111307</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>20311</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="158">
         <v>4111307</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>9729</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="154">
         <v>4111201</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="154">
         <v>4111201</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="154">
         <v>4111201</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="154">
         <v>4111201</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>11952.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="154">
         <v>4111201</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="154">
         <v>4111201</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="154">
         <v>4111201</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="157" t="s">
         <v>296</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="157" t="s">
         <v>297</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>402.14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D71" s="125"/>
       <c r="E71" s="125"/>
       <c r="F71" s="125"/>
@@ -4303,15 +4303,15 @@
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
         <v>223</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>101</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="O2" s="135"/>
       <c r="P2" s="135"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>105</v>
       </c>
@@ -4405,7 +4405,7 @@
       <c r="O3" s="135"/>
       <c r="P3" s="135"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>107</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="O4" s="135"/>
       <c r="P4" s="135"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>109</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>111</v>
       </c>
@@ -4497,7 +4497,7 @@
       <c r="O6" s="135"/>
       <c r="P6" s="135"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>115</v>
       </c>
@@ -4519,7 +4519,7 @@
       <c r="O7" s="135"/>
       <c r="P7" s="135"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>117</v>
       </c>
@@ -4541,7 +4541,7 @@
       <c r="O8" s="135"/>
       <c r="P8" s="135"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>120</v>
       </c>
@@ -4563,7 +4563,7 @@
       <c r="O9" s="135"/>
       <c r="P9" s="135"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>123</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="O10" s="135"/>
       <c r="P10" s="135"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>125</v>
       </c>
@@ -4607,7 +4607,7 @@
       <c r="O11" s="135"/>
       <c r="P11" s="135"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>127</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="O12" s="135"/>
       <c r="P12" s="135"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>129</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="O13" s="135"/>
       <c r="P13" s="135"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>131</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="O14" s="135"/>
       <c r="P14" s="135"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>133</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>137</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="O16" s="135"/>
       <c r="P16" s="135"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>139</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="O17" s="135"/>
       <c r="P17" s="135"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>141</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>143</v>
       </c>
@@ -4827,7 +4827,7 @@
       <c r="O19" s="135"/>
       <c r="P19" s="135"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>147</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="P20" s="135"/>
       <c r="S20" s="192"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>149</v>
       </c>
@@ -4871,7 +4871,7 @@
       <c r="N21" s="135"/>
       <c r="O21" s="135"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>151</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>153</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="O23" s="135"/>
       <c r="P23" s="135"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>164</v>
       </c>
@@ -4961,7 +4961,7 @@
       <c r="O24" s="135"/>
       <c r="P24" s="135"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>167</v>
       </c>
@@ -4983,7 +4983,7 @@
       <c r="O25" s="135"/>
       <c r="P25" s="135"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>169</v>
       </c>
@@ -5005,7 +5005,7 @@
       <c r="O26" s="135"/>
       <c r="P26" s="135"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>172</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="O27" s="135"/>
       <c r="P27" s="135"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>176</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="O28" s="135"/>
       <c r="P28" s="135"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>180</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="O29" s="135"/>
       <c r="P29" s="135"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>183</v>
       </c>
@@ -5097,7 +5097,7 @@
       <c r="O30" s="135"/>
       <c r="P30" s="135"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>185</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="185" t="s">
         <v>285</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="O32" s="110"/>
       <c r="P32" s="110"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="185" t="s">
         <v>286</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="O33" s="110"/>
       <c r="P33" s="110"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C34" s="194"/>
       <c r="I34" s="192"/>
       <c r="O34" s="192"/>
@@ -5209,15 +5209,15 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="75.140625" style="134" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="75.109375" style="134" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="130" t="s">
         <v>196</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33">
         <v>3111302</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="G2" s="110"/>
       <c r="H2" s="110"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="33">
         <v>3111327</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="G3" s="110"/>
       <c r="H3" s="110"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="33">
         <v>3111338</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="G4" s="110"/>
       <c r="H4" s="110"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="33">
         <v>3241101</v>
       </c>
@@ -5327,7 +5327,7 @@
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="33">
         <v>3211129</v>
       </c>
@@ -5348,7 +5348,7 @@
       <c r="G6" s="110"/>
       <c r="H6" s="110"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="33">
         <v>3821103</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="G7" s="110"/>
       <c r="H7" s="110"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="33">
         <v>3211119</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="G8" s="110"/>
       <c r="H8" s="110"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
         <v>3211120</v>
       </c>
@@ -5411,7 +5411,7 @@
       <c r="G9" s="110"/>
       <c r="H9" s="110"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>3211117</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="G10" s="110"/>
       <c r="H10" s="110"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
         <v>3221104</v>
       </c>
@@ -5453,7 +5453,7 @@
       <c r="G11" s="110"/>
       <c r="H11" s="110"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>3211115</v>
       </c>
@@ -5474,7 +5474,7 @@
       <c r="G12" s="110"/>
       <c r="H12" s="110"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="33">
         <v>3211113</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="G13" s="110"/>
       <c r="H13" s="110"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="33">
         <v>3243102</v>
       </c>
@@ -5516,7 +5516,7 @@
       <c r="G14" s="110"/>
       <c r="H14" s="110"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>3243101</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="G15" s="110"/>
       <c r="H15" s="110"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
         <v>3221108</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="G16" s="110"/>
       <c r="H16" s="110"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>3255102</v>
       </c>
@@ -5579,7 +5579,7 @@
       <c r="G17" s="110"/>
       <c r="H17" s="110"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
         <v>3255104</v>
       </c>
@@ -5600,7 +5600,7 @@
       <c r="G18" s="110"/>
       <c r="H18" s="110"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>3211127</v>
       </c>
@@ -5621,7 +5621,7 @@
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="33">
         <v>3231201</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="G20" s="110"/>
       <c r="H20" s="110"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="33">
         <v>3231201</v>
       </c>
@@ -5663,7 +5663,7 @@
       <c r="G21" s="110"/>
       <c r="H21" s="110"/>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="33">
         <v>3231201</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="G22" s="110"/>
       <c r="H22" s="110"/>
     </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="33">
         <v>3231201</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="33">
         <v>3211109</v>
       </c>
@@ -5726,7 +5726,7 @@
       <c r="G24" s="110"/>
       <c r="H24" s="110"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="33">
         <v>3256103</v>
       </c>
@@ -5747,7 +5747,7 @@
       <c r="G25" s="110"/>
       <c r="H25" s="110"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="33">
         <v>3257101</v>
       </c>
@@ -5768,7 +5768,7 @@
       <c r="G26" s="110"/>
       <c r="H26" s="110"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
         <v>3111332</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="G27" s="110"/>
       <c r="H27" s="110"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="33">
         <v>3111332</v>
       </c>
@@ -5810,7 +5810,7 @@
       <c r="G28" s="110"/>
       <c r="H28" s="110"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="33">
         <v>3111332</v>
       </c>
@@ -5831,7 +5831,7 @@
       <c r="G29" s="110"/>
       <c r="H29" s="110"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="33">
         <v>3257104</v>
       </c>
@@ -5852,7 +5852,7 @@
       <c r="G30" s="110"/>
       <c r="H30" s="110"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="33">
         <v>3255101</v>
       </c>
@@ -5873,7 +5873,7 @@
       <c r="G31" s="110"/>
       <c r="H31" s="110"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="33">
         <v>3256101</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="G32" s="110"/>
       <c r="H32" s="110"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="33">
         <v>3258101</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="G33" s="110"/>
       <c r="H33" s="110"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="33">
         <v>3258102</v>
       </c>
@@ -5936,7 +5936,7 @@
       <c r="G34" s="110"/>
       <c r="H34" s="110"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="33">
         <v>3258103</v>
       </c>
@@ -5957,7 +5957,7 @@
       <c r="G35" s="110"/>
       <c r="H35" s="110"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="33">
         <v>3258105</v>
       </c>
@@ -5978,7 +5978,7 @@
       <c r="G36" s="110"/>
       <c r="H36" s="110"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="33">
         <v>3258107</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="G37" s="110"/>
       <c r="H37" s="110"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="33">
         <v>3258106</v>
       </c>
@@ -6020,7 +6020,7 @@
       <c r="G38" s="110"/>
       <c r="H38" s="110"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="33">
         <v>3258105</v>
       </c>
@@ -6041,7 +6041,7 @@
       <c r="G39" s="110"/>
       <c r="H39" s="110"/>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="33">
         <v>3258114</v>
       </c>
@@ -6062,7 +6062,7 @@
       <c r="G40" s="110"/>
       <c r="H40" s="110"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="33">
         <v>3258128</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="G41" s="110"/>
       <c r="H41" s="110"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="33">
         <v>3258107</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="G42" s="110"/>
       <c r="H42" s="110"/>
     </row>
-    <row r="43" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="33">
         <v>4112101</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="G43" s="110"/>
       <c r="H43" s="110"/>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="33">
         <v>4112101</v>
       </c>
@@ -6146,7 +6146,7 @@
       <c r="G44" s="110"/>
       <c r="H44" s="110"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="33">
         <v>4112102</v>
       </c>
@@ -6167,7 +6167,7 @@
       <c r="G45" s="110"/>
       <c r="H45" s="110"/>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="33">
         <v>4112316</v>
       </c>
@@ -6188,7 +6188,7 @@
       <c r="G46" s="110"/>
       <c r="H46" s="110"/>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="33">
         <v>4112316</v>
       </c>
@@ -6209,7 +6209,7 @@
       <c r="G47" s="110"/>
       <c r="H47" s="110"/>
     </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="33">
         <v>4112304</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="G48" s="110"/>
       <c r="H48" s="110"/>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="33">
         <v>4112304</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="G49" s="110"/>
       <c r="H49" s="110"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="33">
         <v>4112304</v>
       </c>
@@ -6272,7 +6272,7 @@
       <c r="G50" s="110"/>
       <c r="H50" s="110"/>
     </row>
-    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="33">
         <v>4112202</v>
       </c>
@@ -6293,7 +6293,7 @@
       <c r="G51" s="110"/>
       <c r="H51" s="110"/>
     </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="33">
         <v>4112202</v>
       </c>
@@ -6314,7 +6314,7 @@
       <c r="G52" s="110"/>
       <c r="H52" s="110"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="33">
         <v>4112202</v>
       </c>
@@ -6335,7 +6335,7 @@
       <c r="G53" s="110"/>
       <c r="H53" s="110"/>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="33">
         <v>4112202</v>
       </c>
@@ -6356,7 +6356,7 @@
       <c r="G54" s="110"/>
       <c r="H54" s="110"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="33">
         <v>4112314</v>
       </c>
@@ -6377,7 +6377,7 @@
       <c r="G55" s="110"/>
       <c r="H55" s="110"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="33">
         <v>4112303</v>
       </c>
@@ -6398,7 +6398,7 @@
       <c r="G56" s="110"/>
       <c r="H56" s="110"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
         <v>4141101</v>
       </c>
@@ -6419,7 +6419,7 @@
       <c r="G57" s="110"/>
       <c r="H57" s="110"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
         <v>4111306</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="G58" s="110"/>
       <c r="H58" s="110"/>
     </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
         <v>4111307</v>
       </c>
@@ -6461,7 +6461,7 @@
       <c r="G59" s="110"/>
       <c r="H59" s="110"/>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
         <v>4111307</v>
       </c>
@@ -6482,7 +6482,7 @@
       <c r="G60" s="110"/>
       <c r="H60" s="110"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="33">
         <v>4111307</v>
       </c>
@@ -6503,7 +6503,7 @@
       <c r="G61" s="110"/>
       <c r="H61" s="110"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="33">
         <v>4111201</v>
       </c>
@@ -6524,7 +6524,7 @@
       <c r="G62" s="110"/>
       <c r="H62" s="110"/>
     </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="33">
         <v>4111201</v>
       </c>
@@ -6545,7 +6545,7 @@
       <c r="G63" s="110"/>
       <c r="H63" s="110"/>
     </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="33">
         <v>4111201</v>
       </c>
@@ -6566,7 +6566,7 @@
       <c r="G64" s="110"/>
       <c r="H64" s="110"/>
     </row>
-    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="33">
         <v>4111201</v>
       </c>
@@ -6587,7 +6587,7 @@
       <c r="G65" s="110"/>
       <c r="H65" s="110"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="33">
         <v>4111201</v>
       </c>
@@ -6608,7 +6608,7 @@
       <c r="G66" s="110"/>
       <c r="H66" s="110"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="33">
         <v>4111201</v>
       </c>
@@ -6629,7 +6629,7 @@
       <c r="G67" s="110"/>
       <c r="H67" s="110"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="33">
         <v>4111201</v>
       </c>
@@ -6650,7 +6650,7 @@
       <c r="G68" s="110"/>
       <c r="H68" s="110"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="110" t="s">
         <v>296</v>
       </c>
@@ -6666,7 +6666,7 @@
       <c r="G69" s="110"/>
       <c r="H69" s="110"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="110" t="s">
         <v>297</v>
       </c>
@@ -6695,15 +6695,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="110" t="s">
         <v>223</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="110" t="s">
         <v>133</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="110" t="s">
         <v>141</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
         <v>151</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="110" t="s">
         <v>147</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="342" t="s">
         <v>252</v>
       </c>
@@ -6819,7 +6819,7 @@
       <c r="D7" s="342"/>
       <c r="E7" s="342"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="110" t="s">
         <v>164</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="110" t="s">
         <v>167</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
         <v>169</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="110" t="s">
         <v>172</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="110" t="s">
         <v>176</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="110" t="s">
         <v>180</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
         <v>183</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="110" t="s">
         <v>185</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="110"/>
       <c r="B16" s="110"/>
       <c r="C16" s="137">
@@ -6996,14 +6996,14 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.5546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="126" customWidth="1"/>
-    <col min="2" max="2" width="85.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="126" customWidth="1"/>
+    <col min="2" max="2" width="85.33203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
         <v>294</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="180" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="180" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="177">
         <v>3111302</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="180" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="180" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="177">
         <v>3111327</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="180" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="180" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="177">
         <v>3111338</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="174">
         <v>3241101</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="174">
         <v>3211129</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="174">
         <v>3821103</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="174">
         <v>3211119</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="174">
         <v>3211120</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="174">
         <v>3211117</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="174">
         <v>3221104</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="174">
         <v>3211115</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="174">
         <v>3211113</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="174">
         <v>3243102</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="174">
         <v>3243101</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="174">
         <v>3221108</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="174">
         <v>3255102</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="174">
         <v>3255104</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="174">
         <v>3211127</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="174">
         <v>3231201</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="174">
         <v>3231201</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="174">
         <v>3231201</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="174">
         <v>3231201</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="174">
         <v>3211109</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="174">
         <v>3256103</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="174">
         <v>3257101</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="181">
         <v>3111332</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="181">
         <v>3111332</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="181">
         <v>3111332</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="174">
         <v>3257104</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="174">
         <v>3255101</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="174">
         <v>3256101</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="174">
         <v>3258101</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="174">
         <v>3258102</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="174">
         <v>3258103</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="174">
         <v>3258105</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="174">
         <v>3258107</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="174">
         <v>3258106</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="174">
         <v>3258105</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="177">
         <v>3258114</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="174">
         <v>3258128</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="174">
         <v>3258107</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="152">
         <v>4112101</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="152">
         <v>4112101</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="175">
         <v>4112102</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="186" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="186" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="184">
         <v>4112316</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="186" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="186" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="184">
         <v>4112316</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="175">
         <v>4112304</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="175">
         <v>4112304</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="175">
         <v>4112304</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="175">
         <v>4112202</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="175">
         <v>4112202</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="175">
         <v>4112202</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="175">
         <v>4112202</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="152">
         <v>4112314</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="152">
         <v>4112303</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="155">
         <v>4141101</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="158">
         <v>4111306</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="158">
         <v>4111307</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="158">
         <v>4111307</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="158">
         <v>4111307</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="175">
         <v>4111201</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="175">
         <v>4111201</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="175">
         <v>4111201</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="175">
         <v>4111201</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="175">
         <v>4111201</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="175">
         <v>4111201</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="175">
         <v>4111201</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="157" t="s">
         <v>296</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="157" t="s">
         <v>297</v>
       </c>
@@ -7790,18 +7790,18 @@
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="16" style="126" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="126" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="126" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="134" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="134" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="139" t="s">
         <v>223</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="C2" s="126"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="C3" s="126"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="C4" s="126"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="C5" s="126"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="C6" s="126"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="C7" s="126"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="C8" s="126"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="C9" s="126"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="C10" s="126"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -7974,7 +7974,7 @@
       </c>
       <c r="C11" s="126"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="C12" s="126"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -7992,7 +7992,7 @@
       </c>
       <c r="C13" s="126"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C14" s="126"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="C15" s="126"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -8019,7 +8019,7 @@
       </c>
       <c r="C16" s="126"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="C17" s="126"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="C18" s="126"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="C19" s="126"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>147</v>
       </c>
@@ -8055,7 +8055,7 @@
       </c>
       <c r="C20" s="126"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="C21" s="126"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="C22" s="126"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -8082,7 +8082,7 @@
       </c>
       <c r="C23" s="126"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="C24" s="126"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -8100,7 +8100,7 @@
       </c>
       <c r="C25" s="126"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>169</v>
       </c>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="C26" s="126"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="C27" s="126"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="C28" s="126"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>180</v>
       </c>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="C29" s="126"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="C30" s="126"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>185</v>
       </c>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="C31" s="126"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>285</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -8181,12 +8181,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="317" t="s">
         <v>295</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>101</v>
       </c>
@@ -8228,7 +8228,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="110" t="s">
         <v>105</v>
       </c>
@@ -8241,7 +8241,7 @@
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="110" t="s">
         <v>107</v>
       </c>
@@ -8254,7 +8254,7 @@
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
         <v>109</v>
       </c>
@@ -8267,7 +8267,7 @@
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="110" t="s">
         <v>111</v>
       </c>
@@ -8280,7 +8280,7 @@
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="110" t="s">
         <v>115</v>
       </c>
@@ -8293,7 +8293,7 @@
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="110" t="s">
         <v>117</v>
       </c>
@@ -8306,7 +8306,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="110" t="s">
         <v>120</v>
       </c>
@@ -8319,7 +8319,7 @@
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
         <v>123</v>
       </c>
@@ -8332,7 +8332,7 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="110" t="s">
         <v>125</v>
       </c>
@@ -8345,7 +8345,7 @@
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="110" t="s">
         <v>127</v>
       </c>
@@ -8358,7 +8358,7 @@
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="110" t="s">
         <v>129</v>
       </c>
@@ -8371,7 +8371,7 @@
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
         <v>131</v>
       </c>
@@ -8384,7 +8384,7 @@
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="110" t="s">
         <v>133</v>
       </c>
@@ -8397,7 +8397,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="110" t="s">
         <v>137</v>
       </c>
@@ -8410,7 +8410,7 @@
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="110" t="s">
         <v>139</v>
       </c>
@@ -8423,7 +8423,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="110" t="s">
         <v>141</v>
       </c>
@@ -8436,7 +8436,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="110" t="s">
         <v>143</v>
       </c>
@@ -8449,7 +8449,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="110" t="s">
         <v>147</v>
       </c>
@@ -8462,7 +8462,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="110" t="s">
         <v>149</v>
       </c>
@@ -8475,7 +8475,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="110" t="s">
         <v>151</v>
       </c>
@@ -8488,7 +8488,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="110" t="s">
         <v>153</v>
       </c>
@@ -8501,7 +8501,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="110" t="s">
         <v>164</v>
       </c>
@@ -8514,7 +8514,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="110" t="s">
         <v>167</v>
       </c>
@@ -8527,7 +8527,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="110" t="s">
         <v>169</v>
       </c>
@@ -8540,7 +8540,7 @@
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="110" t="s">
         <v>172</v>
       </c>
@@ -8553,7 +8553,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="110" t="s">
         <v>176</v>
       </c>
@@ -8566,7 +8566,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="110" t="s">
         <v>180</v>
       </c>
@@ -8579,7 +8579,7 @@
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="110" t="s">
         <v>183</v>
       </c>
@@ -8592,7 +8592,7 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="110" t="s">
         <v>185</v>
       </c>
@@ -8605,7 +8605,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="110" t="s">
         <v>285</v>
       </c>
@@ -8618,7 +8618,7 @@
       <c r="H32" s="110"/>
       <c r="I32" s="110"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="110" t="s">
         <v>286</v>
       </c>
@@ -8644,15 +8644,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>298</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>305</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>307</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -8739,25 +8739,25 @@
       <selection pane="bottomLeft" activeCell="H2" sqref="H2:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="70" customWidth="1"/>
-    <col min="4" max="7" width="18.85546875" style="72" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="70" customWidth="1"/>
+    <col min="4" max="7" width="18.88671875" style="72" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="51" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="51" customWidth="1"/>
     <col min="10" max="10" width="21" style="122" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="37" customWidth="1"/>
     <col min="12" max="12" width="29" style="37" customWidth="1"/>
-    <col min="13" max="13" width="33.85546875" style="37" customWidth="1"/>
-    <col min="14" max="14" width="33.85546875" style="125" customWidth="1"/>
-    <col min="15" max="19" width="33.85546875" style="37" customWidth="1"/>
-    <col min="20" max="62" width="9.140625" style="37"/>
-    <col min="63" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="33.88671875" style="37" customWidth="1"/>
+    <col min="14" max="14" width="33.88671875" style="125" customWidth="1"/>
+    <col min="15" max="19" width="33.88671875" style="37" customWidth="1"/>
+    <col min="20" max="62" width="9.109375" style="37"/>
+    <col min="63" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="253" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="253" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="252" t="s">
         <v>196</v>
       </c>
@@ -8818,7 +8818,7 @@
       <c r="BK1" s="255"/>
       <c r="BL1" s="255"/>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
         <v>3111302</v>
       </c>
@@ -8857,7 +8857,7 @@
       <c r="R2" s="157"/>
       <c r="S2" s="157"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
         <v>3111327</v>
       </c>
@@ -8896,7 +8896,7 @@
       <c r="R3" s="157"/>
       <c r="S3" s="157"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
         <v>3111338</v>
       </c>
@@ -8935,7 +8935,7 @@
       <c r="R4" s="157"/>
       <c r="S4" s="157"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" s="55">
         <v>3241101</v>
       </c>
@@ -8974,7 +8974,7 @@
       <c r="R5" s="157"/>
       <c r="S5" s="157"/>
     </row>
-    <row r="6" spans="1:64" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" s="55">
         <v>3211129</v>
       </c>
@@ -9013,7 +9013,7 @@
       <c r="R6" s="157"/>
       <c r="S6" s="157"/>
     </row>
-    <row r="7" spans="1:64" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>3821103</v>
       </c>
@@ -9052,7 +9052,7 @@
       <c r="R7" s="157"/>
       <c r="S7" s="157"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" s="55">
         <v>3211119</v>
       </c>
@@ -9091,7 +9091,7 @@
       <c r="R8" s="157"/>
       <c r="S8" s="157"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>3211120</v>
       </c>
@@ -9130,7 +9130,7 @@
       <c r="R9" s="157"/>
       <c r="S9" s="157"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>3211117</v>
       </c>
@@ -9169,7 +9169,7 @@
       <c r="R10" s="157"/>
       <c r="S10" s="157"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>3221104</v>
       </c>
@@ -9208,7 +9208,7 @@
       <c r="R11" s="157"/>
       <c r="S11" s="157"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" s="55">
         <v>3211115</v>
       </c>
@@ -9247,7 +9247,7 @@
       <c r="R12" s="157"/>
       <c r="S12" s="157"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>3211113</v>
       </c>
@@ -9286,7 +9286,7 @@
       <c r="R13" s="157"/>
       <c r="S13" s="157"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" s="55">
         <v>3243102</v>
       </c>
@@ -9325,7 +9325,7 @@
       <c r="R14" s="157"/>
       <c r="S14" s="157"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" s="55">
         <v>3243101</v>
       </c>
@@ -9364,7 +9364,7 @@
       <c r="R15" s="157"/>
       <c r="S15" s="157"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" s="55">
         <v>3221108</v>
       </c>
@@ -9403,7 +9403,7 @@
       <c r="R16" s="157"/>
       <c r="S16" s="157"/>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>3255102</v>
       </c>
@@ -9442,7 +9442,7 @@
       <c r="R17" s="157"/>
       <c r="S17" s="157"/>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A18" s="55">
         <v>3255104</v>
       </c>
@@ -9481,7 +9481,7 @@
       <c r="R18" s="157"/>
       <c r="S18" s="157"/>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A19" s="55">
         <v>3211127</v>
       </c>
@@ -9520,7 +9520,7 @@
       <c r="R19" s="157"/>
       <c r="S19" s="157"/>
     </row>
-    <row r="20" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="55">
         <v>3231201</v>
       </c>
@@ -9559,7 +9559,7 @@
       <c r="R20" s="157"/>
       <c r="S20" s="157"/>
     </row>
-    <row r="21" spans="1:62" s="119" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" s="119" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="55">
         <v>3231201</v>
       </c>
@@ -9647,7 +9647,7 @@
       <c r="BI21" s="118"/>
       <c r="BJ21" s="118"/>
     </row>
-    <row r="22" spans="1:62" s="119" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" s="119" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A22" s="55">
         <v>3231201</v>
       </c>
@@ -9735,7 +9735,7 @@
       <c r="BI22" s="118"/>
       <c r="BJ22" s="118"/>
     </row>
-    <row r="23" spans="1:62" s="119" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" s="119" customFormat="1" ht="51" x14ac:dyDescent="0.3">
       <c r="A23" s="55">
         <v>3231201</v>
       </c>
@@ -9823,7 +9823,7 @@
       <c r="BI23" s="118"/>
       <c r="BJ23" s="118"/>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A24" s="55">
         <v>3211109</v>
       </c>
@@ -9862,7 +9862,7 @@
       <c r="R24" s="157"/>
       <c r="S24" s="157"/>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>3256103</v>
       </c>
@@ -9901,7 +9901,7 @@
       <c r="R25" s="157"/>
       <c r="S25" s="157"/>
     </row>
-    <row r="26" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="55">
         <v>3257101</v>
       </c>
@@ -9948,7 +9948,7 @@
       <c r="R26" s="157"/>
       <c r="S26" s="157"/>
     </row>
-    <row r="27" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A27" s="56">
         <v>3111332</v>
       </c>
@@ -9987,7 +9987,7 @@
       <c r="R27" s="157"/>
       <c r="S27" s="157"/>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A28" s="56">
         <v>3111332</v>
       </c>
@@ -10026,7 +10026,7 @@
       <c r="R28" s="157"/>
       <c r="S28" s="157"/>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A29" s="56">
         <v>3111332</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="R29" s="157"/>
       <c r="S29" s="157"/>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A30" s="55">
         <v>3257104</v>
       </c>
@@ -10104,7 +10104,7 @@
       <c r="R30" s="157"/>
       <c r="S30" s="157"/>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A31" s="55">
         <v>3255101</v>
       </c>
@@ -10143,7 +10143,7 @@
       <c r="R31" s="157"/>
       <c r="S31" s="157"/>
     </row>
-    <row r="32" spans="1:62" s="199" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" s="199" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="250">
         <v>3256101</v>
       </c>
@@ -10225,7 +10225,7 @@
       <c r="BI32" s="198"/>
       <c r="BJ32" s="198"/>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>3258101</v>
       </c>
@@ -10264,7 +10264,7 @@
       <c r="R33" s="157"/>
       <c r="S33" s="157"/>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
         <v>3258102</v>
       </c>
@@ -10303,7 +10303,7 @@
       <c r="R34" s="157"/>
       <c r="S34" s="157"/>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>3258103</v>
       </c>
@@ -10342,7 +10342,7 @@
       <c r="R35" s="157"/>
       <c r="S35" s="157"/>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A36" s="55">
         <v>3258105</v>
       </c>
@@ -10381,7 +10381,7 @@
       <c r="R36" s="157"/>
       <c r="S36" s="157"/>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>3258107</v>
       </c>
@@ -10420,7 +10420,7 @@
       <c r="R37" s="157"/>
       <c r="S37" s="157"/>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A38" s="55">
         <v>3258106</v>
       </c>
@@ -10459,7 +10459,7 @@
       <c r="R38" s="157"/>
       <c r="S38" s="157"/>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A39" s="55">
         <v>3258105</v>
       </c>
@@ -10498,7 +10498,7 @@
       <c r="R39" s="157"/>
       <c r="S39" s="157"/>
     </row>
-    <row r="40" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="256">
         <v>3258114</v>
       </c>
@@ -10545,7 +10545,7 @@
       <c r="R40" s="157"/>
       <c r="S40" s="157"/>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A41" s="55">
         <v>3258128</v>
       </c>
@@ -10584,7 +10584,7 @@
       <c r="R41" s="157"/>
       <c r="S41" s="157"/>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A42" s="55">
         <v>3258107</v>
       </c>
@@ -10623,7 +10623,7 @@
       <c r="R42" s="157"/>
       <c r="S42" s="157"/>
     </row>
-    <row r="43" spans="1:62" s="199" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:62" s="199" customFormat="1" ht="67.2" x14ac:dyDescent="0.35">
       <c r="A43" s="242">
         <v>4112101</v>
       </c>
@@ -10705,7 +10705,7 @@
       <c r="BI43" s="198"/>
       <c r="BJ43" s="198"/>
     </row>
-    <row r="44" spans="1:62" s="199" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62" s="199" customFormat="1" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A44" s="242">
         <v>4112101</v>
       </c>
@@ -10783,7 +10783,7 @@
       <c r="BI44" s="198"/>
       <c r="BJ44" s="198"/>
     </row>
-    <row r="45" spans="1:62" s="199" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62" s="199" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="248">
         <v>4112102</v>
       </c>
@@ -10861,7 +10861,7 @@
       <c r="BI45" s="198"/>
       <c r="BJ45" s="198"/>
     </row>
-    <row r="46" spans="1:62" s="199" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" s="199" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="248">
         <v>4112316</v>
       </c>
@@ -10939,7 +10939,7 @@
       <c r="BI46" s="198"/>
       <c r="BJ46" s="198"/>
     </row>
-    <row r="47" spans="1:62" s="199" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" s="199" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A47" s="248">
         <v>4112316</v>
       </c>
@@ -11017,7 +11017,7 @@
       <c r="BI47" s="198"/>
       <c r="BJ47" s="198"/>
     </row>
-    <row r="48" spans="1:62" s="199" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:62" s="199" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="248">
         <v>4112304</v>
       </c>
@@ -11095,7 +11095,7 @@
       <c r="BI48" s="198"/>
       <c r="BJ48" s="198"/>
     </row>
-    <row r="49" spans="1:62" s="199" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:62" s="199" customFormat="1" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A49" s="248">
         <v>4112304</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="BI49" s="198"/>
       <c r="BJ49" s="198"/>
     </row>
-    <row r="50" spans="1:62" s="199" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:62" s="199" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A50" s="248">
         <v>4112304</v>
       </c>
@@ -11255,7 +11255,7 @@
       <c r="BI50" s="198"/>
       <c r="BJ50" s="198"/>
     </row>
-    <row r="51" spans="1:62" s="199" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:62" s="199" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A51" s="248">
         <v>4112202</v>
       </c>
@@ -11333,7 +11333,7 @@
       <c r="BI51" s="198"/>
       <c r="BJ51" s="198"/>
     </row>
-    <row r="52" spans="1:62" s="199" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:62" s="199" customFormat="1" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A52" s="248">
         <v>4112202</v>
       </c>
@@ -11411,7 +11411,7 @@
       <c r="BI52" s="198"/>
       <c r="BJ52" s="198"/>
     </row>
-    <row r="53" spans="1:62" s="199" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:62" s="199" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="248">
         <v>4112202</v>
       </c>
@@ -11489,7 +11489,7 @@
       <c r="BI53" s="198"/>
       <c r="BJ53" s="198"/>
     </row>
-    <row r="54" spans="1:62" s="199" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:62" s="199" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A54" s="248">
         <v>4112202</v>
       </c>
@@ -11567,7 +11567,7 @@
       <c r="BI54" s="198"/>
       <c r="BJ54" s="198"/>
     </row>
-    <row r="55" spans="1:62" s="199" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:62" s="199" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="242">
         <v>4112314</v>
       </c>
@@ -11645,7 +11645,7 @@
       <c r="BI55" s="198"/>
       <c r="BJ55" s="198"/>
     </row>
-    <row r="56" spans="1:62" s="199" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:62" s="199" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="242">
         <v>4112303</v>
       </c>
@@ -11727,7 +11727,7 @@
       <c r="BI56" s="198"/>
       <c r="BJ56" s="198"/>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A57" s="60">
         <v>4141101</v>
       </c>
@@ -11766,7 +11766,7 @@
       <c r="R57" s="157"/>
       <c r="S57" s="157"/>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A58" s="61">
         <v>4111306</v>
       </c>
@@ -11811,7 +11811,7 @@
       <c r="R58" s="157"/>
       <c r="S58" s="157"/>
     </row>
-    <row r="59" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A59" s="61">
         <v>4111307</v>
       </c>
@@ -11858,7 +11858,7 @@
       <c r="R59" s="157"/>
       <c r="S59" s="157"/>
     </row>
-    <row r="60" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A60" s="61">
         <v>4111307</v>
       </c>
@@ -11905,7 +11905,7 @@
       <c r="R60" s="157"/>
       <c r="S60" s="157"/>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A61" s="61">
         <v>4111307</v>
       </c>
@@ -11952,7 +11952,7 @@
       <c r="R61" s="157"/>
       <c r="S61" s="157"/>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A62" s="58">
         <v>4111201</v>
       </c>
@@ -11999,7 +11999,7 @@
       <c r="R62" s="157"/>
       <c r="S62" s="157"/>
     </row>
-    <row r="63" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A63" s="58">
         <v>4111201</v>
       </c>
@@ -12046,7 +12046,7 @@
       <c r="R63" s="157"/>
       <c r="S63" s="157"/>
     </row>
-    <row r="64" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A64" s="58">
         <v>4111201</v>
       </c>
@@ -12093,7 +12093,7 @@
       <c r="R64" s="157"/>
       <c r="S64" s="157"/>
     </row>
-    <row r="65" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A65" s="58">
         <v>4111201</v>
       </c>
@@ -12140,7 +12140,7 @@
       <c r="R65" s="157"/>
       <c r="S65" s="157"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="58">
         <v>4111201</v>
       </c>
@@ -12187,7 +12187,7 @@
       <c r="R66" s="157"/>
       <c r="S66" s="157"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="58">
         <v>4111201</v>
       </c>
@@ -12234,7 +12234,7 @@
       <c r="R67" s="157"/>
       <c r="S67" s="157"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="58">
         <v>4111201</v>
       </c>
@@ -12277,7 +12277,7 @@
       <c r="R68" s="157"/>
       <c r="S68" s="157"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>296</v>
       </c>
@@ -12312,7 +12312,7 @@
       <c r="R69" s="157"/>
       <c r="S69" s="157"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>297</v>
       </c>
@@ -12347,7 +12347,7 @@
       <c r="R70" s="157"/>
       <c r="S70" s="157"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D71" s="189"/>
       <c r="E71" s="189"/>
       <c r="F71" s="189"/>
@@ -12355,15 +12355,15 @@
       <c r="H71" s="52"/>
       <c r="I71" s="52"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H72" s="52"/>
       <c r="I72" s="52"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H73" s="52"/>
       <c r="I73" s="52"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D74" s="71"/>
       <c r="E74" s="71"/>
       <c r="F74" s="71"/>
@@ -12371,7 +12371,7 @@
       <c r="H74" s="52"/>
       <c r="I74" s="52"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D75" s="71"/>
       <c r="E75" s="71"/>
       <c r="F75" s="71"/>
@@ -12379,7 +12379,7 @@
       <c r="H75" s="52"/>
       <c r="I75" s="52"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="71"/>
@@ -12387,7 +12387,7 @@
       <c r="H76" s="52"/>
       <c r="I76" s="52"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D77" s="71"/>
       <c r="E77" s="71"/>
       <c r="F77" s="71"/>
@@ -12395,7 +12395,7 @@
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D78" s="71"/>
       <c r="E78" s="71"/>
       <c r="F78" s="71"/>
@@ -12403,7 +12403,7 @@
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D79" s="71"/>
       <c r="E79" s="71"/>
       <c r="F79" s="71"/>
@@ -12429,19 +12429,19 @@
       <selection activeCell="AA76" sqref="AA76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="264" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
     <col min="3" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
     <col min="8" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="25" max="28" width="12.5703125" style="126" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="126" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="25" max="28" width="12.5546875" style="126" customWidth="1"/>
+    <col min="31" max="31" width="20.44140625" style="126" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="266" t="s">
         <v>223</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="266">
         <v>3111302</v>
       </c>
@@ -12629,7 +12629,7 @@
       <c r="AG2" s="86"/>
       <c r="AH2" s="86"/>
     </row>
-    <row r="3" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266">
         <v>3111327</v>
       </c>
@@ -12708,7 +12708,7 @@
       <c r="AG3" s="86"/>
       <c r="AH3" s="86"/>
     </row>
-    <row r="4" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266">
         <v>3111338</v>
       </c>
@@ -12791,7 +12791,7 @@
       <c r="AG4" s="86"/>
       <c r="AH4" s="86"/>
     </row>
-    <row r="5" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266">
         <v>3241101</v>
       </c>
@@ -12876,7 +12876,7 @@
       <c r="AG5" s="91"/>
       <c r="AH5" s="91"/>
     </row>
-    <row r="6" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266">
         <v>3211129</v>
       </c>
@@ -12963,7 +12963,7 @@
       <c r="AG6" s="90"/>
       <c r="AH6" s="90"/>
     </row>
-    <row r="7" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266">
         <v>3821103</v>
       </c>
@@ -13050,7 +13050,7 @@
       <c r="AG7" s="90"/>
       <c r="AH7" s="90"/>
     </row>
-    <row r="8" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="266">
         <v>3211119</v>
       </c>
@@ -13137,7 +13137,7 @@
       <c r="AG8" s="90"/>
       <c r="AH8" s="90"/>
     </row>
-    <row r="9" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="266">
         <v>3211120</v>
       </c>
@@ -13218,7 +13218,7 @@
       <c r="AG9" s="90"/>
       <c r="AH9" s="90"/>
     </row>
-    <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="266">
         <v>3211117</v>
       </c>
@@ -13299,7 +13299,7 @@
       <c r="AG10" s="90"/>
       <c r="AH10" s="90"/>
     </row>
-    <row r="11" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="266">
         <v>3221104</v>
       </c>
@@ -13382,7 +13382,7 @@
       <c r="AG11" s="86"/>
       <c r="AH11" s="86"/>
     </row>
-    <row r="12" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="266">
         <v>3211115</v>
       </c>
@@ -13467,7 +13467,7 @@
       <c r="AG12" s="90"/>
       <c r="AH12" s="90"/>
     </row>
-    <row r="13" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="266">
         <v>3211113</v>
       </c>
@@ -13552,7 +13552,7 @@
       <c r="AG13" s="90"/>
       <c r="AH13" s="90"/>
     </row>
-    <row r="14" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="266">
         <v>3243102</v>
       </c>
@@ -13637,7 +13637,7 @@
       <c r="AG14" s="90"/>
       <c r="AH14" s="90"/>
     </row>
-    <row r="15" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="266">
         <v>3243101</v>
       </c>
@@ -13724,7 +13724,7 @@
       <c r="AG15" s="90"/>
       <c r="AH15" s="90"/>
     </row>
-    <row r="16" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="266">
         <v>3221108</v>
       </c>
@@ -13803,7 +13803,7 @@
       <c r="AG16" s="86"/>
       <c r="AH16" s="86"/>
     </row>
-    <row r="17" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="266">
         <v>3255102</v>
       </c>
@@ -13888,7 +13888,7 @@
       <c r="AG17" s="90"/>
       <c r="AH17" s="90"/>
     </row>
-    <row r="18" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="266">
         <v>3255104</v>
       </c>
@@ -13975,7 +13975,7 @@
       <c r="AG18" s="90"/>
       <c r="AH18" s="90"/>
     </row>
-    <row r="19" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="266">
         <v>3211127</v>
       </c>
@@ -14062,7 +14062,7 @@
       <c r="AG19" s="86"/>
       <c r="AH19" s="86"/>
     </row>
-    <row r="20" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="266">
         <v>3231201</v>
       </c>
@@ -14141,7 +14141,7 @@
       <c r="AG20" s="90"/>
       <c r="AH20" s="90"/>
     </row>
-    <row r="21" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="266">
         <v>3231201</v>
       </c>
@@ -14232,7 +14232,7 @@
       <c r="AG21" s="90"/>
       <c r="AH21" s="90"/>
     </row>
-    <row r="22" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="266">
         <v>3231201</v>
       </c>
@@ -14323,7 +14323,7 @@
       <c r="AG22" s="90"/>
       <c r="AH22" s="90"/>
     </row>
-    <row r="23" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="266">
         <v>3231201</v>
       </c>
@@ -14408,7 +14408,7 @@
       <c r="AG23" s="90"/>
       <c r="AH23" s="90"/>
     </row>
-    <row r="24" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="266">
         <v>3211109</v>
       </c>
@@ -14491,7 +14491,7 @@
       <c r="AG24" s="86"/>
       <c r="AH24" s="86"/>
     </row>
-    <row r="25" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="266">
         <v>3256103</v>
       </c>
@@ -14570,7 +14570,7 @@
       <c r="AG25" s="90"/>
       <c r="AH25" s="90"/>
     </row>
-    <row r="26" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="266">
         <v>3257101</v>
       </c>
@@ -14656,7 +14656,7 @@
       <c r="AG26" s="86"/>
       <c r="AH26" s="86"/>
     </row>
-    <row r="27" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="266">
         <v>3111332</v>
       </c>
@@ -14739,7 +14739,7 @@
       <c r="AG27" s="90"/>
       <c r="AH27" s="90"/>
     </row>
-    <row r="28" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="266">
         <v>3111332</v>
       </c>
@@ -14818,7 +14818,7 @@
       <c r="AG28" s="90"/>
       <c r="AH28" s="90"/>
     </row>
-    <row r="29" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="266">
         <v>3111332</v>
       </c>
@@ -14897,7 +14897,7 @@
       <c r="AG29" s="90"/>
       <c r="AH29" s="90"/>
     </row>
-    <row r="30" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="266">
         <v>3257104</v>
       </c>
@@ -14976,7 +14976,7 @@
       <c r="AG30" s="90"/>
       <c r="AH30" s="90"/>
     </row>
-    <row r="31" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="266">
         <v>3255101</v>
       </c>
@@ -15061,7 +15061,7 @@
       <c r="AG31" s="86"/>
       <c r="AH31" s="86"/>
     </row>
-    <row r="32" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="266">
         <v>3256101</v>
       </c>
@@ -15150,7 +15150,7 @@
       <c r="AG32" s="91"/>
       <c r="AH32" s="91"/>
     </row>
-    <row r="33" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="266">
         <v>3258101</v>
       </c>
@@ -15237,7 +15237,7 @@
       <c r="AG33" s="90"/>
       <c r="AH33" s="90"/>
     </row>
-    <row r="34" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="266">
         <v>3258102</v>
       </c>
@@ -15316,7 +15316,7 @@
       <c r="AG34" s="90"/>
       <c r="AH34" s="90"/>
     </row>
-    <row r="35" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="266">
         <v>3258103</v>
       </c>
@@ -15397,7 +15397,7 @@
       <c r="AG35" s="90"/>
       <c r="AH35" s="90"/>
     </row>
-    <row r="36" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="266">
         <v>3258105</v>
       </c>
@@ -15484,7 +15484,7 @@
       <c r="AG36" s="86"/>
       <c r="AH36" s="86"/>
     </row>
-    <row r="37" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="266">
         <v>3258107</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="AG37" s="86"/>
       <c r="AH37" s="86"/>
     </row>
-    <row r="38" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="266">
         <v>3258106</v>
       </c>
@@ -15642,7 +15642,7 @@
       <c r="AG38" s="90"/>
       <c r="AH38" s="90"/>
     </row>
-    <row r="39" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="266">
         <v>3258105</v>
       </c>
@@ -15725,7 +15725,7 @@
       <c r="AG39" s="86"/>
       <c r="AH39" s="86"/>
     </row>
-    <row r="40" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="266">
         <v>3258114</v>
       </c>
@@ -15814,7 +15814,7 @@
       <c r="AG40" s="86"/>
       <c r="AH40" s="86"/>
     </row>
-    <row r="41" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="266">
         <v>3258128</v>
       </c>
@@ -15893,7 +15893,7 @@
       <c r="AG41" s="86"/>
       <c r="AH41" s="86"/>
     </row>
-    <row r="42" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="266">
         <v>3258107</v>
       </c>
@@ -15972,7 +15972,7 @@
       <c r="AG42" s="98"/>
       <c r="AH42" s="98"/>
     </row>
-    <row r="43" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="266">
         <v>4112101</v>
       </c>
@@ -16051,7 +16051,7 @@
       <c r="AG43" s="98"/>
       <c r="AH43" s="98"/>
     </row>
-    <row r="44" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="266">
         <v>4112101</v>
       </c>
@@ -16130,7 +16130,7 @@
       <c r="AG44" s="84"/>
       <c r="AH44" s="99"/>
     </row>
-    <row r="45" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="266">
         <v>4112102</v>
       </c>
@@ -16209,7 +16209,7 @@
       <c r="AG45" s="99"/>
       <c r="AH45" s="99"/>
     </row>
-    <row r="46" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="266">
         <v>4112316</v>
       </c>
@@ -16288,7 +16288,7 @@
       <c r="AG46" s="99"/>
       <c r="AH46" s="99"/>
     </row>
-    <row r="47" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="266">
         <v>4112316</v>
       </c>
@@ -16367,7 +16367,7 @@
       <c r="AG47" s="99"/>
       <c r="AH47" s="99"/>
     </row>
-    <row r="48" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="266">
         <v>4112304</v>
       </c>
@@ -16446,7 +16446,7 @@
       <c r="AG48" s="99"/>
       <c r="AH48" s="99"/>
     </row>
-    <row r="49" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="266">
         <v>4112304</v>
       </c>
@@ -16525,7 +16525,7 @@
       <c r="AG49" s="99"/>
       <c r="AH49" s="99"/>
     </row>
-    <row r="50" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="266">
         <v>4112304</v>
       </c>
@@ -16604,7 +16604,7 @@
       <c r="AG50" s="99"/>
       <c r="AH50" s="99"/>
     </row>
-    <row r="51" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="266">
         <v>4112202</v>
       </c>
@@ -16683,7 +16683,7 @@
       <c r="AG51" s="98"/>
       <c r="AH51" s="98"/>
     </row>
-    <row r="52" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="266">
         <v>4112202</v>
       </c>
@@ -16762,7 +16762,7 @@
       <c r="AG52" s="98"/>
       <c r="AH52" s="98"/>
     </row>
-    <row r="53" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="266">
         <v>4112202</v>
       </c>
@@ -16841,7 +16841,7 @@
       <c r="AG53" s="98"/>
       <c r="AH53" s="98"/>
     </row>
-    <row r="54" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="266">
         <v>4112202</v>
       </c>
@@ -16920,7 +16920,7 @@
       <c r="AG54" s="98"/>
       <c r="AH54" s="98"/>
     </row>
-    <row r="55" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="266">
         <v>4112314</v>
       </c>
@@ -16999,7 +16999,7 @@
       <c r="AG55" s="98"/>
       <c r="AH55" s="98"/>
     </row>
-    <row r="56" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="266">
         <v>4112303</v>
       </c>
@@ -17078,7 +17078,7 @@
       <c r="AG56" s="98"/>
       <c r="AH56" s="98"/>
     </row>
-    <row r="57" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="266">
         <v>4141101</v>
       </c>
@@ -17157,7 +17157,7 @@
       <c r="AG57" s="99"/>
       <c r="AH57" s="99"/>
     </row>
-    <row r="58" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="266">
         <v>4111306</v>
       </c>
@@ -17238,7 +17238,7 @@
       <c r="AG58" s="99"/>
       <c r="AH58" s="99"/>
     </row>
-    <row r="59" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="266">
         <v>4111307</v>
       </c>
@@ -17319,7 +17319,7 @@
       <c r="AG59" s="99"/>
       <c r="AH59" s="99"/>
     </row>
-    <row r="60" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="266">
         <v>4111307</v>
       </c>
@@ -17404,7 +17404,7 @@
       <c r="AG60" s="99"/>
       <c r="AH60" s="99"/>
     </row>
-    <row r="61" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="266">
         <v>4111307</v>
       </c>
@@ -17485,7 +17485,7 @@
       <c r="AG61" s="90"/>
       <c r="AH61" s="90"/>
     </row>
-    <row r="62" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="266">
         <v>4111201</v>
       </c>
@@ -17566,7 +17566,7 @@
       <c r="AG62" s="86"/>
       <c r="AH62" s="86"/>
     </row>
-    <row r="63" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="266">
         <v>4111201</v>
       </c>
@@ -17647,7 +17647,7 @@
       <c r="AG63" s="99"/>
       <c r="AH63" s="99"/>
     </row>
-    <row r="64" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="266">
         <v>4111201</v>
       </c>
@@ -17728,7 +17728,7 @@
       <c r="AG64" s="99"/>
       <c r="AH64" s="99"/>
     </row>
-    <row r="65" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="266">
         <v>4111201</v>
       </c>
@@ -17809,7 +17809,7 @@
       <c r="AG65" s="99"/>
       <c r="AH65" s="99"/>
     </row>
-    <row r="66" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="266">
         <v>4111201</v>
       </c>
@@ -17890,7 +17890,7 @@
       <c r="AG66" s="98"/>
       <c r="AH66" s="98"/>
     </row>
-    <row r="67" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="266">
         <v>4111201</v>
       </c>
@@ -17971,7 +17971,7 @@
       <c r="AG67" s="99"/>
       <c r="AH67" s="99"/>
     </row>
-    <row r="68" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="266">
         <v>4111201</v>
       </c>
@@ -18052,7 +18052,7 @@
       <c r="AG68" s="99"/>
       <c r="AH68" s="99"/>
     </row>
-    <row r="69" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="266" t="s">
         <v>296</v>
       </c>
@@ -18119,7 +18119,7 @@
       <c r="AG69" s="50"/>
       <c r="AH69" s="50"/>
     </row>
-    <row r="70" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="266" t="s">
         <v>297</v>
       </c>
@@ -18204,29 +18204,29 @@
       <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="70" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="16.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="16" style="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="17.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A1" s="340" t="s">
         <v>0</v>
       </c>
@@ -18272,7 +18272,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="50" t="s">
@@ -18352,7 +18352,7 @@
       <c r="Q3" s="320"/>
       <c r="R3" s="320"/>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>11.6104</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -18462,7 +18462,7 @@
         <v>11.68961</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>34.208399999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>252.5991765</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>0.37058999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>9.2539999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>3.8519999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>3.47105</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>0.40758</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>2.7717200000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -18906,7 +18906,7 @@
         <v>5.4251399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -18960,7 +18960,7 @@
         <v>19.904620000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>0.10196</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>3.6697500000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -19102,7 +19102,7 @@
         <v>15.35078</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>9.9080000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>91.924610000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="41" t="s">
@@ -19230,7 +19230,7 @@
       <c r="Q21" s="320"/>
       <c r="R21" s="320"/>
     </row>
-    <row r="22" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="51" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="41" t="s">
@@ -19254,7 +19254,7 @@
       <c r="Q22" s="320"/>
       <c r="R22" s="320"/>
     </row>
-    <row r="23" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="51" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="41" t="s">
@@ -19278,7 +19278,7 @@
       <c r="Q23" s="320"/>
       <c r="R23" s="320"/>
     </row>
-    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>4.2466499999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -19398,7 +19398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="78" t="s">
@@ -19422,7 +19422,7 @@
       <c r="Q27" s="320"/>
       <c r="R27" s="320"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="50" t="s">
@@ -19446,7 +19446,7 @@
       <c r="Q28" s="320"/>
       <c r="R28" s="320"/>
     </row>
-    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>5.5179600000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>21.01211</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -19582,7 +19582,7 @@
         <v>7.6388699999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>299.93044500000002</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>27</v>
       </c>
@@ -19694,7 +19694,7 @@
         <v>15.00455</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>0.49260999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>1.74404</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>30</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>0.33738000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>9.9132899999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>4.9831599999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>33</v>
       </c>
@@ -19950,7 +19950,7 @@
         <v>0.49907000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -20018,7 +20018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>38</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>2.9944600000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>39</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="34" t="s">
@@ -20146,7 +20146,7 @@
       <c r="Q45" s="323"/>
       <c r="R45" s="320"/>
     </row>
-    <row r="46" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="36" t="s">
@@ -20170,7 +20170,7 @@
       <c r="Q46" s="323"/>
       <c r="R46" s="320"/>
     </row>
-    <row r="47" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="36" t="s">
@@ -20194,7 +20194,7 @@
       <c r="Q47" s="323"/>
       <c r="R47" s="320"/>
     </row>
-    <row r="48" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="15"/>
       <c r="C48" s="35" t="s">
@@ -20218,7 +20218,7 @@
       <c r="Q48" s="323"/>
       <c r="R48" s="320"/>
     </row>
-    <row r="49" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="15"/>
       <c r="C49" s="34" t="s">
@@ -20242,7 +20242,7 @@
       <c r="Q49" s="323"/>
       <c r="R49" s="320"/>
     </row>
-    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>41</v>
       </c>
@@ -20276,7 +20276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="77"/>
       <c r="C51" s="47" t="s">
@@ -20300,7 +20300,7 @@
       <c r="Q51" s="323"/>
       <c r="R51" s="320"/>
     </row>
-    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="77"/>
       <c r="C52" s="41" t="s">
@@ -20324,7 +20324,7 @@
       <c r="Q52" s="323"/>
       <c r="R52" s="320"/>
     </row>
-    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="77"/>
       <c r="C53" s="41" t="s">
@@ -20348,7 +20348,7 @@
       <c r="Q53" s="323"/>
       <c r="R53" s="320"/>
     </row>
-    <row r="54" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="77"/>
       <c r="C54" s="46" t="s">
@@ -20372,7 +20372,7 @@
       <c r="Q54" s="323"/>
       <c r="R54" s="320"/>
     </row>
-    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>43</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>5.9669999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>44</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>45</v>
       </c>
@@ -20484,7 +20484,7 @@
         <v>3879.9</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>46</v>
       </c>
@@ -20518,7 +20518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>47</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>48</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>49</v>
       </c>
@@ -20634,7 +20634,7 @@
         <v>777.67146369999989</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="22">
         <v>50</v>
       </c>
@@ -20682,7 +20682,7 @@
         <v>553.59507129999997</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A63" s="75">
         <v>51</v>
       </c>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A64" s="75">
         <v>52</v>
       </c>
@@ -20746,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A65" s="75">
         <v>53</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A66" s="75">
         <v>54</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="75">
         <v>55</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A68" s="76">
         <v>56</v>
       </c>
@@ -20874,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="18" t="s">
@@ -20935,17 +20935,17 @@
         <v>6046.4836565000005</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O70" s="10"/>
     </row>
-    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="J71" s="16"/>
       <c r="K71" s="14"/>
       <c r="M71" s="13"/>
       <c r="N71" s="12"/>
       <c r="O71" s="10"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>36</v>
       </c>
@@ -20954,7 +20954,7 @@
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
     </row>
-    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B73" s="27" t="s">
         <v>95</v>
       </c>
@@ -20966,7 +20966,7 @@
       <c r="K73" s="10"/>
       <c r="M73" s="10"/>
     </row>
-    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B74" s="27" t="s">
         <v>96</v>
       </c>
@@ -20980,7 +20980,7 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
         <v>97</v>
       </c>
@@ -20991,7 +20991,7 @@
       <c r="E75" s="73"/>
       <c r="J75" s="10"/>
     </row>
-    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B76" s="28" t="s">
         <v>98</v>
       </c>
@@ -21012,7 +21012,7 @@
       <c r="Q76" s="26"/>
       <c r="R76" s="26"/>
     </row>
-    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B77" s="30"/>
       <c r="C77" s="31">
         <f>SUM(C73:C76)</f>
@@ -21036,7 +21036,7 @@
         <v>659250000</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
       <c r="D78" s="335"/>
@@ -21058,7 +21058,7 @@
       </c>
       <c r="R78" s="26"/>
     </row>
-    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
       <c r="D79" s="335"/>
@@ -21079,7 +21079,7 @@
         <v>54601634.349999905</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
     </row>
@@ -21102,29 +21102,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView view="pageBreakPreview" topLeftCell="L1" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="53" customWidth="1"/>
-    <col min="2" max="2" width="92.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="70" customWidth="1"/>
-    <col min="4" max="6" width="18.85546875" style="72" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="92.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="70" customWidth="1"/>
+    <col min="4" max="6" width="18.88671875" style="72" customWidth="1"/>
     <col min="7" max="7" width="24" style="72" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="72" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" style="72" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="72" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" style="72" customWidth="1"/>
     <col min="10" max="10" width="22" style="72" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="72" customWidth="1"/>
-    <col min="12" max="15" width="23.28515625" style="72" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="37" hidden="1" customWidth="1"/>
-    <col min="17" max="67" width="9.140625" style="37"/>
-    <col min="68" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="22.33203125" style="72" customWidth="1"/>
+    <col min="12" max="15" width="23.33203125" style="72" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="37" hidden="1" customWidth="1"/>
+    <col min="17" max="67" width="9.109375" style="37"/>
+    <col min="68" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="238" t="s">
         <v>196</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="205">
         <v>3111302</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="205">
         <v>3111327</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="205">
         <v>3111338</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:67" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="206">
         <v>3241101</v>
       </c>
@@ -21332,7 +21332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:67" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="206">
         <v>3211129</v>
       </c>
@@ -21374,7 +21374,7 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:67" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="206">
         <v>3821103</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>359.08</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="201" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" s="201" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="207">
         <v>3211119</v>
       </c>
@@ -21521,7 +21521,7 @@
       <c r="BN8" s="200"/>
       <c r="BO8" s="200"/>
     </row>
-    <row r="9" spans="1:67" s="199" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:67" s="199" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="208">
         <v>3211120</v>
       </c>
@@ -21604,7 +21604,7 @@
       <c r="BN9" s="198"/>
       <c r="BO9" s="198"/>
     </row>
-    <row r="10" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="206">
         <v>3211117</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="206">
         <v>3221104</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="206">
         <v>3211115</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="206">
         <v>3211113</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="206">
         <v>3243102</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="206">
         <v>3243101</v>
       </c>
@@ -21843,7 +21843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="206">
         <v>3221108</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="206">
         <v>3255102</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="206">
         <v>3255104</v>
       </c>
@@ -21966,7 +21966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="199" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:67" s="199" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="208">
         <v>3211127</v>
       </c>
@@ -22063,7 +22063,7 @@
       <c r="BN19" s="198"/>
       <c r="BO19" s="198"/>
     </row>
-    <row r="20" spans="1:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="206">
         <v>3231201</v>
       </c>
@@ -22092,7 +22092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:67" ht="42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:67" ht="42" x14ac:dyDescent="0.4">
       <c r="A21" s="206">
         <v>3231201</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>196.17</v>
       </c>
     </row>
-    <row r="22" spans="1:67" ht="84" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:67" ht="84" x14ac:dyDescent="0.4">
       <c r="A22" s="206">
         <v>3231201</v>
       </c>
@@ -22176,7 +22176,7 @@
         <v>677.14</v>
       </c>
     </row>
-    <row r="23" spans="1:67" ht="84" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:67" ht="84" x14ac:dyDescent="0.4">
       <c r="A23" s="206">
         <v>3231201</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>246.66</v>
       </c>
     </row>
-    <row r="24" spans="1:67" s="199" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:67" s="199" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="208">
         <v>3211109</v>
       </c>
@@ -22308,7 +22308,7 @@
       <c r="BN24" s="198"/>
       <c r="BO24" s="198"/>
     </row>
-    <row r="25" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="206">
         <v>3256103</v>
       </c>
@@ -22341,7 +22341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A26" s="206">
         <v>3257101</v>
       </c>
@@ -22370,7 +22370,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="209">
         <v>3111332</v>
       </c>
@@ -22408,7 +22408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="209">
         <v>3111332</v>
       </c>
@@ -22437,7 +22437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A29" s="209">
         <v>3111332</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A30" s="206">
         <v>3257104</v>
       </c>
@@ -22498,7 +22498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:67" s="199" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:67" s="199" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A31" s="208">
         <v>3255101</v>
       </c>
@@ -22591,7 +22591,7 @@
       <c r="BN31" s="198"/>
       <c r="BO31" s="198"/>
     </row>
-    <row r="32" spans="1:67" s="199" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:67" s="199" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="208">
         <v>3256101</v>
       </c>
@@ -22692,7 +22692,7 @@
       <c r="BN32" s="198"/>
       <c r="BO32" s="198"/>
     </row>
-    <row r="33" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="206">
         <v>3258101</v>
       </c>
@@ -22740,7 +22740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="206">
         <v>3258102</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="206">
         <v>3258103</v>
       </c>
@@ -22812,7 +22812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="206">
         <v>3258105</v>
       </c>
@@ -22852,7 +22852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A37" s="206">
         <v>3258107</v>
       </c>
@@ -22881,7 +22881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="206">
         <v>3258106</v>
       </c>
@@ -22912,7 +22912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A39" s="206">
         <v>3258105</v>
       </c>
@@ -22952,7 +22952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A40" s="205">
         <v>3258114</v>
       </c>
@@ -22985,7 +22985,7 @@
         <v>58.25</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A41" s="206">
         <v>3258128</v>
       </c>
@@ -23016,7 +23016,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A42" s="206">
         <v>3258107</v>
       </c>
@@ -23047,7 +23047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="126" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="126" x14ac:dyDescent="0.4">
       <c r="A43" s="210">
         <v>4112101</v>
       </c>
@@ -23076,7 +23076,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A44" s="210">
         <v>4112101</v>
       </c>
@@ -23102,7 +23102,7 @@
       <c r="N44" s="217"/>
       <c r="O44" s="217"/>
     </row>
-    <row r="45" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A45" s="211">
         <v>4112102</v>
       </c>
@@ -23128,7 +23128,7 @@
       <c r="N45" s="217"/>
       <c r="O45" s="217"/>
     </row>
-    <row r="46" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A46" s="212">
         <v>4112316</v>
       </c>
@@ -23154,7 +23154,7 @@
       <c r="N46" s="217"/>
       <c r="O46" s="217"/>
     </row>
-    <row r="47" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A47" s="212">
         <v>4112316</v>
       </c>
@@ -23180,7 +23180,7 @@
       <c r="N47" s="217"/>
       <c r="O47" s="217"/>
     </row>
-    <row r="48" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A48" s="211">
         <v>4112304</v>
       </c>
@@ -23206,7 +23206,7 @@
       <c r="N48" s="217"/>
       <c r="O48" s="217"/>
     </row>
-    <row r="49" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A49" s="211">
         <v>4112304</v>
       </c>
@@ -23232,7 +23232,7 @@
       <c r="N49" s="217"/>
       <c r="O49" s="217"/>
     </row>
-    <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="211">
         <v>4112304</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="84" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="84" x14ac:dyDescent="0.4">
       <c r="A51" s="211">
         <v>4112202</v>
       </c>
@@ -23289,7 +23289,7 @@
       <c r="N51" s="217"/>
       <c r="O51" s="217"/>
     </row>
-    <row r="52" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A52" s="211">
         <v>4112202</v>
       </c>
@@ -23315,7 +23315,7 @@
       <c r="N52" s="217"/>
       <c r="O52" s="217"/>
     </row>
-    <row r="53" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A53" s="211">
         <v>4112202</v>
       </c>
@@ -23341,7 +23341,7 @@
       <c r="N53" s="217"/>
       <c r="O53" s="217"/>
     </row>
-    <row r="54" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A54" s="211">
         <v>4112202</v>
       </c>
@@ -23367,7 +23367,7 @@
       <c r="N54" s="217"/>
       <c r="O54" s="217"/>
     </row>
-    <row r="55" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A55" s="210">
         <v>4112314</v>
       </c>
@@ -23393,7 +23393,7 @@
       <c r="N55" s="217"/>
       <c r="O55" s="217"/>
     </row>
-    <row r="56" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A56" s="210">
         <v>4112303</v>
       </c>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A57" s="213">
         <v>4141101</v>
       </c>
@@ -23455,7 +23455,7 @@
         <v>2049.42</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A58" s="214">
         <v>4111306</v>
       </c>
@@ -23490,7 +23490,7 @@
         <v>490.33</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A59" s="214">
         <v>4111307</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A60" s="214">
         <v>4111307</v>
       </c>
@@ -23566,7 +23566,7 @@
         <v>8105.58</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="214">
         <v>4111307</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>3956.08</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A62" s="211">
         <v>4111201</v>
       </c>
@@ -23640,7 +23640,7 @@
         <v>900.73</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A63" s="211">
         <v>4111201</v>
       </c>
@@ -23677,7 +23677,7 @@
         <v>913.26</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A64" s="211">
         <v>4111201</v>
       </c>
@@ -23714,7 +23714,7 @@
         <v>657.55</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A65" s="211">
         <v>4111201</v>
       </c>
@@ -23751,7 +23751,7 @@
         <v>4914.3100000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A66" s="211">
         <v>4111201</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A67" s="211">
         <v>4111201</v>
       </c>
@@ -23814,7 +23814,7 @@
         <v>348.14</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A68" s="211">
         <v>4111201</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A69" s="215" t="s">
         <v>296</v>
       </c>
@@ -23866,7 +23866,7 @@
       <c r="N69" s="217"/>
       <c r="O69" s="217"/>
     </row>
-    <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A70" s="215" t="s">
         <v>297</v>
       </c>
@@ -23889,7 +23889,7 @@
       <c r="N70" s="217"/>
       <c r="O70" s="217"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D71" s="71"/>
       <c r="E71" s="71"/>
       <c r="F71" s="71"/>
@@ -23903,7 +23903,7 @@
       <c r="N71" s="71"/>
       <c r="O71" s="71"/>
     </row>
-    <row r="72" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="190"/>
       <c r="C72" s="190"/>
       <c r="D72" s="62"/>
@@ -23919,7 +23919,7 @@
       <c r="N72" s="71"/>
       <c r="O72" s="71"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D73" s="71"/>
       <c r="E73" s="71"/>
       <c r="F73" s="71"/>
@@ -23933,7 +23933,7 @@
       <c r="N73" s="71"/>
       <c r="O73" s="71"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D74" s="71"/>
       <c r="E74" s="71"/>
       <c r="F74" s="71"/>
@@ -23947,7 +23947,7 @@
       <c r="N74" s="71"/>
       <c r="O74" s="71"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D75" s="71"/>
       <c r="E75" s="71"/>
       <c r="F75" s="71"/>
@@ -23961,7 +23961,7 @@
       <c r="N75" s="71"/>
       <c r="O75" s="71"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="71"/>
@@ -23975,7 +23975,7 @@
       <c r="N76" s="71"/>
       <c r="O76" s="71"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D77" s="71"/>
       <c r="E77" s="71"/>
       <c r="F77" s="71"/>
@@ -23989,7 +23989,7 @@
       <c r="N77" s="71"/>
       <c r="O77" s="71"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D78" s="71"/>
       <c r="E78" s="71"/>
       <c r="F78" s="71"/>
@@ -24003,7 +24003,7 @@
       <c r="N78" s="71"/>
       <c r="O78" s="71"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D79" s="71"/>
       <c r="E79" s="71"/>
       <c r="F79" s="71"/>
@@ -24036,13 +24036,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" style="134" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" style="134" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="33">
         <v>4111307</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="33">
         <v>4111307</v>
       </c>
@@ -24058,7 +24058,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="33">
         <v>4111307</v>
       </c>
@@ -24066,7 +24066,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="33">
         <v>4111201</v>
       </c>
@@ -24074,7 +24074,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="33">
         <v>4111201</v>
       </c>
@@ -24082,7 +24082,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="33">
         <v>4111201</v>
       </c>
@@ -24090,7 +24090,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="33">
         <v>4111201</v>
       </c>
@@ -24098,7 +24098,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="33">
         <v>4111201</v>
       </c>
@@ -24106,7 +24106,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
         <v>4111201</v>
       </c>
@@ -24114,7 +24114,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>4111201</v>
       </c>
@@ -24122,7 +24122,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>296</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>297</v>
       </c>
@@ -24153,20 +24153,20 @@
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="70" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="72" customWidth="1"/>
-    <col min="5" max="15" width="18.85546875" style="51" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="37" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="37" customWidth="1"/>
-    <col min="18" max="68" width="9.140625" style="37"/>
-    <col min="69" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.33203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="70" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="72" customWidth="1"/>
+    <col min="5" max="15" width="18.88671875" style="51" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" style="37" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="37" customWidth="1"/>
+    <col min="18" max="68" width="9.109375" style="37"/>
+    <col min="69" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
         <v>196</v>
       </c>
@@ -24213,7 +24213,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
         <v>3111302</v>
       </c>
@@ -24238,7 +24238,7 @@
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
     </row>
-    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
         <v>3111327</v>
       </c>
@@ -24263,7 +24263,7 @@
       <c r="N3" s="50"/>
       <c r="O3" s="50"/>
     </row>
-    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
         <v>3111338</v>
       </c>
@@ -24288,7 +24288,7 @@
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
     </row>
-    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="55">
         <v>3241101</v>
       </c>
@@ -24313,7 +24313,7 @@
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
     </row>
-    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="55">
         <v>3211129</v>
       </c>
@@ -24338,7 +24338,7 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
     </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>3821103</v>
       </c>
@@ -24363,7 +24363,7 @@
       <c r="N7" s="50"/>
       <c r="O7" s="50"/>
     </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="55">
         <v>3211119</v>
       </c>
@@ -24388,7 +24388,7 @@
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
     </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>3211120</v>
       </c>
@@ -24413,7 +24413,7 @@
       <c r="N9" s="50"/>
       <c r="O9" s="50"/>
     </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>3211117</v>
       </c>
@@ -24438,7 +24438,7 @@
       <c r="N10" s="50"/>
       <c r="O10" s="50"/>
     </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>3221104</v>
       </c>
@@ -24463,7 +24463,7 @@
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
     </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="55">
         <v>3211115</v>
       </c>
@@ -24488,7 +24488,7 @@
       <c r="N12" s="50"/>
       <c r="O12" s="50"/>
     </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>3211113</v>
       </c>
@@ -24513,7 +24513,7 @@
       <c r="N13" s="50"/>
       <c r="O13" s="50"/>
     </row>
-    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="55">
         <v>3243102</v>
       </c>
@@ -24538,7 +24538,7 @@
       <c r="N14" s="50"/>
       <c r="O14" s="50"/>
     </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="55">
         <v>3243101</v>
       </c>
@@ -24563,7 +24563,7 @@
       <c r="N15" s="50"/>
       <c r="O15" s="50"/>
     </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="55">
         <v>3221108</v>
       </c>
@@ -24588,7 +24588,7 @@
       <c r="N16" s="50"/>
       <c r="O16" s="50"/>
     </row>
-    <row r="17" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>3255102</v>
       </c>
@@ -24613,7 +24613,7 @@
       <c r="N17" s="50"/>
       <c r="O17" s="50"/>
     </row>
-    <row r="18" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="55">
         <v>3255104</v>
       </c>
@@ -24638,7 +24638,7 @@
       <c r="N18" s="50"/>
       <c r="O18" s="50"/>
     </row>
-    <row r="19" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="55">
         <v>3211127</v>
       </c>
@@ -24663,7 +24663,7 @@
       <c r="N19" s="50"/>
       <c r="O19" s="50"/>
     </row>
-    <row r="20" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55">
         <v>3231201</v>
       </c>
@@ -24688,7 +24688,7 @@
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
     </row>
-    <row r="21" spans="1:68" s="199" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:68" s="199" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="79">
         <v>3231201</v>
       </c>
@@ -24776,7 +24776,7 @@
       <c r="BO21" s="198"/>
       <c r="BP21" s="198"/>
     </row>
-    <row r="22" spans="1:68" s="199" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:68" s="199" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="79">
         <v>3231201</v>
       </c>
@@ -24868,7 +24868,7 @@
       <c r="BO22" s="198"/>
       <c r="BP22" s="198"/>
     </row>
-    <row r="23" spans="1:68" s="199" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:68" s="199" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="79">
         <v>3231201</v>
       </c>
@@ -24956,7 +24956,7 @@
       <c r="BO23" s="198"/>
       <c r="BP23" s="198"/>
     </row>
-    <row r="24" spans="1:68" s="199" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:68" s="199" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="250">
         <v>3211109</v>
       </c>
@@ -25034,7 +25034,7 @@
       <c r="BO24" s="198"/>
       <c r="BP24" s="198"/>
     </row>
-    <row r="25" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>3256103</v>
       </c>
@@ -25059,7 +25059,7 @@
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
     </row>
-    <row r="26" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="55">
         <v>3257101</v>
       </c>
@@ -25084,7 +25084,7 @@
       <c r="N26" s="50"/>
       <c r="O26" s="50"/>
     </row>
-    <row r="27" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="56">
         <v>3111332</v>
       </c>
@@ -25109,7 +25109,7 @@
       <c r="N27" s="50"/>
       <c r="O27" s="50"/>
     </row>
-    <row r="28" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56">
         <v>3111332</v>
       </c>
@@ -25134,7 +25134,7 @@
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
     </row>
-    <row r="29" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56">
         <v>3111332</v>
       </c>
@@ -25159,7 +25159,7 @@
       <c r="N29" s="50"/>
       <c r="O29" s="50"/>
     </row>
-    <row r="30" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="55">
         <v>3257104</v>
       </c>
@@ -25184,7 +25184,7 @@
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
     </row>
-    <row r="31" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="55">
         <v>3255101</v>
       </c>
@@ -25209,7 +25209,7 @@
       <c r="N31" s="50"/>
       <c r="O31" s="50"/>
     </row>
-    <row r="32" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55">
         <v>3256101</v>
       </c>
@@ -25234,7 +25234,7 @@
       <c r="N32" s="50"/>
       <c r="O32" s="50"/>
     </row>
-    <row r="33" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>3258101</v>
       </c>
@@ -25259,7 +25259,7 @@
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
     </row>
-    <row r="34" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
         <v>3258102</v>
       </c>
@@ -25284,7 +25284,7 @@
       <c r="N34" s="50"/>
       <c r="O34" s="50"/>
     </row>
-    <row r="35" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>3258103</v>
       </c>
@@ -25309,7 +25309,7 @@
       <c r="N35" s="50"/>
       <c r="O35" s="50"/>
     </row>
-    <row r="36" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="55">
         <v>3258105</v>
       </c>
@@ -25334,7 +25334,7 @@
       <c r="N36" s="50"/>
       <c r="O36" s="50"/>
     </row>
-    <row r="37" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>3258107</v>
       </c>
@@ -25359,7 +25359,7 @@
       <c r="N37" s="50"/>
       <c r="O37" s="50"/>
     </row>
-    <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="55">
         <v>3258106</v>
       </c>
@@ -25384,7 +25384,7 @@
       <c r="N38" s="50"/>
       <c r="O38" s="50"/>
     </row>
-    <row r="39" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="55">
         <v>3258105</v>
       </c>
@@ -25409,7 +25409,7 @@
       <c r="N39" s="50"/>
       <c r="O39" s="50"/>
     </row>
-    <row r="40" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="54">
         <v>3258114</v>
       </c>
@@ -25440,7 +25440,7 @@
       <c r="N40" s="104"/>
       <c r="O40" s="104"/>
     </row>
-    <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="55">
         <v>3258128</v>
       </c>
@@ -25465,7 +25465,7 @@
       <c r="N41" s="50"/>
       <c r="O41" s="50"/>
     </row>
-    <row r="42" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="55">
         <v>3258107</v>
       </c>
@@ -25490,7 +25490,7 @@
       <c r="N42" s="50"/>
       <c r="O42" s="50"/>
     </row>
-    <row r="43" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="57">
         <v>4112101</v>
       </c>
@@ -25515,7 +25515,7 @@
       <c r="N43" s="50"/>
       <c r="O43" s="50"/>
     </row>
-    <row r="44" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="57">
         <v>4112101</v>
       </c>
@@ -25540,7 +25540,7 @@
       <c r="N44" s="50"/>
       <c r="O44" s="50"/>
     </row>
-    <row r="45" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="58">
         <v>4112102</v>
       </c>
@@ -25565,7 +25565,7 @@
       <c r="N45" s="50"/>
       <c r="O45" s="50"/>
     </row>
-    <row r="46" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="59">
         <v>4112316</v>
       </c>
@@ -25590,7 +25590,7 @@
       <c r="N46" s="50"/>
       <c r="O46" s="50"/>
     </row>
-    <row r="47" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="59">
         <v>4112316</v>
       </c>
@@ -25615,7 +25615,7 @@
       <c r="N47" s="50"/>
       <c r="O47" s="50"/>
     </row>
-    <row r="48" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="58">
         <v>4112304</v>
       </c>
@@ -25640,7 +25640,7 @@
       <c r="N48" s="50"/>
       <c r="O48" s="50"/>
     </row>
-    <row r="49" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="58">
         <v>4112304</v>
       </c>
@@ -25665,7 +25665,7 @@
       <c r="N49" s="50"/>
       <c r="O49" s="50"/>
     </row>
-    <row r="50" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58">
         <v>4112304</v>
       </c>
@@ -25690,7 +25690,7 @@
       <c r="N50" s="50"/>
       <c r="O50" s="50"/>
     </row>
-    <row r="51" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="58">
         <v>4112202</v>
       </c>
@@ -25715,7 +25715,7 @@
       <c r="N51" s="50"/>
       <c r="O51" s="50"/>
     </row>
-    <row r="52" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="58">
         <v>4112202</v>
       </c>
@@ -25740,7 +25740,7 @@
       <c r="N52" s="50"/>
       <c r="O52" s="50"/>
     </row>
-    <row r="53" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="58">
         <v>4112202</v>
       </c>
@@ -25765,7 +25765,7 @@
       <c r="N53" s="50"/>
       <c r="O53" s="50"/>
     </row>
-    <row r="54" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="58">
         <v>4112202</v>
       </c>
@@ -25790,7 +25790,7 @@
       <c r="N54" s="50"/>
       <c r="O54" s="50"/>
     </row>
-    <row r="55" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="57">
         <v>4112314</v>
       </c>
@@ -25815,7 +25815,7 @@
       <c r="N55" s="50"/>
       <c r="O55" s="50"/>
     </row>
-    <row r="56" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="57">
         <v>4112303</v>
       </c>
@@ -25840,7 +25840,7 @@
       <c r="N56" s="50"/>
       <c r="O56" s="50"/>
     </row>
-    <row r="57" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="60">
         <v>4141101</v>
       </c>
@@ -25865,7 +25865,7 @@
       <c r="N57" s="50"/>
       <c r="O57" s="50"/>
     </row>
-    <row r="58" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="61">
         <v>4111306</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>3738000</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="61">
         <v>4111307</v>
       </c>
@@ -25929,7 +25929,7 @@
         <v>28690000</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="61">
         <v>4111307</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>89325300</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="61">
         <v>4111307</v>
       </c>
@@ -26003,7 +26003,7 @@
         <v>68072400</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="58">
         <v>4111201</v>
       </c>
@@ -26036,7 +26036,7 @@
         <v>28162800</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="58">
         <v>4111201</v>
       </c>
@@ -26071,7 +26071,7 @@
         <v>9744900</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="58">
         <v>4111201</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>305095000</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="58">
         <v>4111201</v>
       </c>
@@ -26137,7 +26137,7 @@
         <v>65214600</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="58">
         <v>4111201</v>
       </c>
@@ -26164,7 +26164,7 @@
         <v>1654600</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="58">
         <v>4111201</v>
       </c>
@@ -26189,7 +26189,7 @@
       <c r="N67" s="104"/>
       <c r="O67" s="241"/>
     </row>
-    <row r="68" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="58">
         <v>4111201</v>
       </c>
@@ -26214,7 +26214,7 @@
       <c r="N68" s="50"/>
       <c r="O68" s="50"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>296</v>
       </c>
@@ -26239,7 +26239,7 @@
       <c r="N69" s="50"/>
       <c r="O69" s="50"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>297</v>
       </c>
@@ -26264,7 +26264,7 @@
       <c r="N70" s="50"/>
       <c r="O70" s="50"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C71" s="109"/>
       <c r="D71" s="105"/>
       <c r="E71" s="106"/>
@@ -26279,7 +26279,7 @@
       <c r="N71" s="106"/>
       <c r="O71" s="52"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C72" s="109"/>
       <c r="D72" s="105"/>
       <c r="E72" s="106"/>
@@ -26294,7 +26294,7 @@
       <c r="N72" s="106"/>
       <c r="O72" s="52"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C73" s="109"/>
       <c r="D73" s="105"/>
       <c r="E73" s="106"/>
@@ -26309,7 +26309,7 @@
       <c r="N73" s="106"/>
       <c r="O73" s="52"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C74" s="109"/>
       <c r="D74" s="105"/>
       <c r="E74" s="106"/>
@@ -26324,7 +26324,7 @@
       <c r="N74" s="106"/>
       <c r="O74" s="52"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C75" s="109"/>
       <c r="D75" s="105"/>
       <c r="E75" s="106"/>
@@ -26339,7 +26339,7 @@
       <c r="N75" s="106"/>
       <c r="O75" s="52"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C76" s="109"/>
       <c r="D76" s="105"/>
       <c r="E76" s="106"/>
@@ -26354,7 +26354,7 @@
       <c r="N76" s="106"/>
       <c r="O76" s="52"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C77" s="109"/>
       <c r="D77" s="105"/>
       <c r="E77" s="106"/>
@@ -26369,7 +26369,7 @@
       <c r="N77" s="106"/>
       <c r="O77" s="52"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C78" s="109"/>
       <c r="D78" s="105"/>
       <c r="E78" s="106"/>
@@ -26384,7 +26384,7 @@
       <c r="N78" s="106"/>
       <c r="O78" s="52"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C79" s="109"/>
       <c r="D79" s="105"/>
       <c r="E79" s="106"/>
@@ -26399,7 +26399,7 @@
       <c r="N79" s="106"/>
       <c r="O79" s="52"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C80" s="109"/>
       <c r="D80" s="107"/>
       <c r="E80" s="108"/>
@@ -26413,7 +26413,7 @@
       <c r="M80" s="108"/>
       <c r="N80" s="108"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C81" s="109"/>
     </row>
   </sheetData>
@@ -26432,7 +26432,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26442,26 +26442,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="70" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="72" customWidth="1"/>
-    <col min="5" max="15" width="18.85546875" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="70" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="72" customWidth="1"/>
+    <col min="5" max="15" width="18.88671875" style="51" customWidth="1"/>
     <col min="16" max="16" width="17" style="62" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" style="37" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="37" customWidth="1"/>
-    <col min="19" max="69" width="9.140625" style="37"/>
-    <col min="70" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="17.5546875" style="37" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="37" customWidth="1"/>
+    <col min="19" max="69" width="9.109375" style="37"/>
+    <col min="70" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
         <v>196</v>
       </c>
@@ -26508,7 +26508,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
         <v>3111302</v>
       </c>
@@ -26538,7 +26538,7 @@
       <c r="O2" s="88"/>
       <c r="P2" s="72"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
         <v>3111327</v>
       </c>
@@ -26568,7 +26568,7 @@
       <c r="O3" s="88"/>
       <c r="P3" s="72"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
         <v>3111338</v>
       </c>
@@ -26598,7 +26598,7 @@
       <c r="O4" s="88"/>
       <c r="P4" s="72"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="55">
         <v>3241101</v>
       </c>
@@ -26627,7 +26627,7 @@
       <c r="N5" s="93"/>
       <c r="O5" s="94"/>
     </row>
-    <row r="6" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="55">
         <v>3211129</v>
       </c>
@@ -26656,7 +26656,7 @@
       <c r="N6" s="93"/>
       <c r="O6" s="94"/>
     </row>
-    <row r="7" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>3821103</v>
       </c>
@@ -26685,7 +26685,7 @@
       <c r="N7" s="93"/>
       <c r="O7" s="94"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="55">
         <v>3211119</v>
       </c>
@@ -26714,7 +26714,7 @@
       <c r="N8" s="93"/>
       <c r="O8" s="94"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>3211120</v>
       </c>
@@ -26743,7 +26743,7 @@
       <c r="N9" s="93"/>
       <c r="O9" s="89"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>3211117</v>
       </c>
@@ -26772,7 +26772,7 @@
       <c r="N10" s="93"/>
       <c r="O10" s="89"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>3221104</v>
       </c>
@@ -26801,7 +26801,7 @@
       <c r="N11" s="87"/>
       <c r="O11" s="88"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="55">
         <v>3211115</v>
       </c>
@@ -26830,7 +26830,7 @@
       <c r="N12" s="93"/>
       <c r="O12" s="94"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>3211113</v>
       </c>
@@ -26859,7 +26859,7 @@
       <c r="N13" s="93"/>
       <c r="O13" s="94"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="55">
         <v>3243102</v>
       </c>
@@ -26888,7 +26888,7 @@
       <c r="N14" s="93"/>
       <c r="O14" s="94"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="55">
         <v>3243101</v>
       </c>
@@ -26917,7 +26917,7 @@
       <c r="N15" s="93"/>
       <c r="O15" s="94"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="55">
         <v>3221108</v>
       </c>
@@ -26946,7 +26946,7 @@
       <c r="N16" s="87"/>
       <c r="O16" s="85"/>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>3255102</v>
       </c>
@@ -26975,7 +26975,7 @@
       <c r="N17" s="93"/>
       <c r="O17" s="94"/>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A18" s="55">
         <v>3255104</v>
       </c>
@@ -27004,7 +27004,7 @@
       <c r="N18" s="93"/>
       <c r="O18" s="94"/>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A19" s="55">
         <v>3211127</v>
       </c>
@@ -27033,7 +27033,7 @@
       <c r="N19" s="87"/>
       <c r="O19" s="88"/>
     </row>
-    <row r="20" spans="1:69" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="55">
         <v>3231201</v>
       </c>
@@ -27062,7 +27062,7 @@
       <c r="N20" s="93"/>
       <c r="O20" s="94"/>
     </row>
-    <row r="21" spans="1:69" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="55">
         <v>3231201</v>
       </c>
@@ -27091,7 +27091,7 @@
       <c r="N21" s="93"/>
       <c r="O21" s="94"/>
     </row>
-    <row r="22" spans="1:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A22" s="55">
         <v>3231201</v>
       </c>
@@ -27120,7 +27120,7 @@
       <c r="N22" s="93"/>
       <c r="O22" s="94"/>
     </row>
-    <row r="23" spans="1:69" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" ht="51" x14ac:dyDescent="0.35">
       <c r="A23" s="55">
         <v>3231201</v>
       </c>
@@ -27149,7 +27149,7 @@
       <c r="N23" s="93"/>
       <c r="O23" s="94"/>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A24" s="55">
         <v>3211109</v>
       </c>
@@ -27178,7 +27178,7 @@
       <c r="N24" s="87"/>
       <c r="O24" s="88"/>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>3256103</v>
       </c>
@@ -27207,7 +27207,7 @@
       <c r="N25" s="93"/>
       <c r="O25" s="89"/>
     </row>
-    <row r="26" spans="1:69" s="199" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" s="199" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="250">
         <v>3257101</v>
       </c>
@@ -27300,7 +27300,7 @@
       <c r="BP26" s="198"/>
       <c r="BQ26" s="198"/>
     </row>
-    <row r="27" spans="1:69" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A27" s="56">
         <v>3111332</v>
       </c>
@@ -27329,7 +27329,7 @@
       <c r="N27" s="93"/>
       <c r="O27" s="89"/>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A28" s="56">
         <v>3111332</v>
       </c>
@@ -27358,7 +27358,7 @@
       <c r="N28" s="93"/>
       <c r="O28" s="89"/>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A29" s="56">
         <v>3111332</v>
       </c>
@@ -27387,7 +27387,7 @@
       <c r="N29" s="93"/>
       <c r="O29" s="94"/>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A30" s="55">
         <v>3257104</v>
       </c>
@@ -27416,7 +27416,7 @@
       <c r="N30" s="93"/>
       <c r="O30" s="89"/>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A31" s="55">
         <v>3255101</v>
       </c>
@@ -27445,7 +27445,7 @@
       <c r="N31" s="93"/>
       <c r="O31" s="94"/>
     </row>
-    <row r="32" spans="1:69" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="79">
         <v>3256101</v>
       </c>
@@ -27528,7 +27528,7 @@
       <c r="BP32" s="82"/>
       <c r="BQ32" s="82"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>3258101</v>
       </c>
@@ -27557,7 +27557,7 @@
       <c r="N33" s="93"/>
       <c r="O33" s="94"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
         <v>3258102</v>
       </c>
@@ -27586,7 +27586,7 @@
       <c r="N34" s="93"/>
       <c r="O34" s="94"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>3258103</v>
       </c>
@@ -27615,7 +27615,7 @@
       <c r="N35" s="93"/>
       <c r="O35" s="94"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="55">
         <v>3258105</v>
       </c>
@@ -27644,7 +27644,7 @@
       <c r="N36" s="87"/>
       <c r="O36" s="88"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>3258107</v>
       </c>
@@ -27673,7 +27673,7 @@
       <c r="N37" s="87"/>
       <c r="O37" s="85"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="55">
         <v>3258106</v>
       </c>
@@ -27702,7 +27702,7 @@
       <c r="N38" s="93"/>
       <c r="O38" s="89"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="55">
         <v>3258105</v>
       </c>
@@ -27731,7 +27731,7 @@
       <c r="N39" s="87"/>
       <c r="O39" s="88"/>
     </row>
-    <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="54">
         <v>3258114</v>
       </c>
@@ -27760,7 +27760,7 @@
       <c r="N40" s="87"/>
       <c r="O40" s="85"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="55">
         <v>3258128</v>
       </c>
@@ -27789,7 +27789,7 @@
       <c r="N41" s="87"/>
       <c r="O41" s="85"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="55">
         <v>3258107</v>
       </c>
@@ -27818,7 +27818,7 @@
       <c r="N42" s="101"/>
       <c r="O42" s="96"/>
     </row>
-    <row r="43" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="47.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="57">
         <v>4112101</v>
       </c>
@@ -27847,7 +27847,7 @@
       <c r="N43" s="98"/>
       <c r="O43" s="96"/>
     </row>
-    <row r="44" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A44" s="57">
         <v>4112101</v>
       </c>
@@ -27876,7 +27876,7 @@
       <c r="N44" s="99"/>
       <c r="O44" s="97"/>
     </row>
-    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="58">
         <v>4112102</v>
       </c>
@@ -27905,7 +27905,7 @@
       <c r="N45" s="99"/>
       <c r="O45" s="97"/>
     </row>
-    <row r="46" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="59">
         <v>4112316</v>
       </c>
@@ -27934,7 +27934,7 @@
       <c r="N46" s="99"/>
       <c r="O46" s="97"/>
     </row>
-    <row r="47" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A47" s="59">
         <v>4112316</v>
       </c>
@@ -27963,7 +27963,7 @@
       <c r="N47" s="99"/>
       <c r="O47" s="97"/>
     </row>
-    <row r="48" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="58">
         <v>4112304</v>
       </c>
@@ -27992,7 +27992,7 @@
       <c r="N48" s="99"/>
       <c r="O48" s="97"/>
     </row>
-    <row r="49" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A49" s="58">
         <v>4112304</v>
       </c>
@@ -28021,7 +28021,7 @@
       <c r="N49" s="99"/>
       <c r="O49" s="97"/>
     </row>
-    <row r="50" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A50" s="58">
         <v>4112304</v>
       </c>
@@ -28050,7 +28050,7 @@
       <c r="N50" s="99"/>
       <c r="O50" s="97"/>
     </row>
-    <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="48" x14ac:dyDescent="0.35">
       <c r="A51" s="58">
         <v>4112202</v>
       </c>
@@ -28079,7 +28079,7 @@
       <c r="N51" s="98"/>
       <c r="O51" s="96"/>
     </row>
-    <row r="52" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A52" s="58">
         <v>4112202</v>
       </c>
@@ -28108,7 +28108,7 @@
       <c r="N52" s="98"/>
       <c r="O52" s="96"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="58">
         <v>4112202</v>
       </c>
@@ -28137,7 +28137,7 @@
       <c r="N53" s="98"/>
       <c r="O53" s="96"/>
     </row>
-    <row r="54" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A54" s="58">
         <v>4112202</v>
       </c>
@@ -28166,7 +28166,7 @@
       <c r="N54" s="98"/>
       <c r="O54" s="96"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="57">
         <v>4112314</v>
       </c>
@@ -28195,7 +28195,7 @@
       <c r="N55" s="98"/>
       <c r="O55" s="96"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="57">
         <v>4112303</v>
       </c>
@@ -28224,7 +28224,7 @@
       <c r="N56" s="98"/>
       <c r="O56" s="94"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="60">
         <v>4141101</v>
       </c>
@@ -28253,7 +28253,7 @@
       <c r="N57" s="99"/>
       <c r="O57" s="102"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="61">
         <v>4111306</v>
       </c>
@@ -28282,7 +28282,7 @@
       <c r="N58" s="99"/>
       <c r="O58" s="97"/>
     </row>
-    <row r="59" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A59" s="61">
         <v>4111307</v>
       </c>
@@ -28311,7 +28311,7 @@
       <c r="N59" s="99"/>
       <c r="O59" s="97"/>
     </row>
-    <row r="60" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A60" s="61">
         <v>4111307</v>
       </c>
@@ -28340,7 +28340,7 @@
       <c r="N60" s="99"/>
       <c r="O60" s="97"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="61">
         <v>4111307</v>
       </c>
@@ -28369,7 +28369,7 @@
       <c r="N61" s="90"/>
       <c r="O61" s="96"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="58">
         <v>4111201</v>
       </c>
@@ -28398,7 +28398,7 @@
       <c r="N62" s="86"/>
       <c r="O62" s="88"/>
     </row>
-    <row r="63" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A63" s="58">
         <v>4111201</v>
       </c>
@@ -28427,7 +28427,7 @@
       <c r="N63" s="99"/>
       <c r="O63" s="97"/>
     </row>
-    <row r="64" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A64" s="58">
         <v>4111201</v>
       </c>
@@ -28456,7 +28456,7 @@
       <c r="N64" s="99"/>
       <c r="O64" s="97"/>
     </row>
-    <row r="65" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A65" s="58">
         <v>4111201</v>
       </c>
@@ -28485,7 +28485,7 @@
       <c r="N65" s="99"/>
       <c r="O65" s="97"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="58">
         <v>4111201</v>
       </c>
@@ -28514,7 +28514,7 @@
       <c r="N66" s="98"/>
       <c r="O66" s="96"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="58">
         <v>4111201</v>
       </c>
@@ -28543,7 +28543,7 @@
       <c r="N67" s="99"/>
       <c r="O67" s="97"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="58">
         <v>4111201</v>
       </c>
@@ -28572,7 +28572,7 @@
       <c r="N68" s="99"/>
       <c r="O68" s="97"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="188" t="s">
         <v>296</v>
       </c>
@@ -28595,7 +28595,7 @@
       <c r="N69" s="50"/>
       <c r="O69" s="50"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="188" t="s">
         <v>297</v>
       </c>
@@ -28618,7 +28618,7 @@
       <c r="N70" s="50"/>
       <c r="O70" s="50"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D71" s="71"/>
       <c r="E71" s="52"/>
       <c r="F71" s="52"/>
@@ -28632,7 +28632,7 @@
       <c r="N71" s="52"/>
       <c r="O71" s="52"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D72" s="71"/>
       <c r="E72" s="52"/>
       <c r="F72" s="52"/>
@@ -28646,7 +28646,7 @@
       <c r="N72" s="52"/>
       <c r="O72" s="52"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D73" s="71"/>
       <c r="E73" s="52"/>
       <c r="F73" s="52"/>
@@ -28660,7 +28660,7 @@
       <c r="N73" s="52"/>
       <c r="O73" s="52"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D74" s="71"/>
       <c r="E74" s="52"/>
       <c r="F74" s="52"/>
@@ -28674,7 +28674,7 @@
       <c r="N74" s="52"/>
       <c r="O74" s="52"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D75" s="71"/>
       <c r="E75" s="52"/>
       <c r="F75" s="52"/>
@@ -28688,7 +28688,7 @@
       <c r="N75" s="52"/>
       <c r="O75" s="52"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D76" s="71"/>
       <c r="E76" s="52"/>
       <c r="F76" s="52"/>
@@ -28702,7 +28702,7 @@
       <c r="N76" s="52"/>
       <c r="O76" s="52"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D77" s="71"/>
       <c r="E77" s="52"/>
       <c r="F77" s="52"/>
@@ -28716,7 +28716,7 @@
       <c r="N77" s="52"/>
       <c r="O77" s="52"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D78" s="71"/>
       <c r="E78" s="52"/>
       <c r="F78" s="52"/>
@@ -28730,7 +28730,7 @@
       <c r="N78" s="52"/>
       <c r="O78" s="52"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D79" s="71"/>
       <c r="E79" s="52"/>
       <c r="F79" s="52"/>
@@ -28758,30 +28758,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="70" customWidth="1"/>
-    <col min="4" max="7" width="18.85546875" style="72" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="70" customWidth="1"/>
+    <col min="4" max="7" width="18.88671875" style="72" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="51" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="51" customWidth="1"/>
     <col min="10" max="10" width="21" style="122" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="72" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="37" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="72" customWidth="1"/>
     <col min="13" max="13" width="29" style="37" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="37" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" style="125" customWidth="1"/>
-    <col min="16" max="63" width="9.140625" style="37"/>
-    <col min="64" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="18.88671875" style="37" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" style="125" customWidth="1"/>
+    <col min="16" max="63" width="9.109375" style="37"/>
+    <col min="64" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
         <v>196</v>
       </c>
@@ -28828,7 +28828,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
         <v>3111302</v>
       </c>
@@ -28863,7 +28863,7 @@
       <c r="N2" s="113"/>
       <c r="O2" s="124"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
         <v>3111327</v>
       </c>
@@ -28898,7 +28898,7 @@
       <c r="N3" s="113"/>
       <c r="O3" s="124"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
         <v>3111338</v>
       </c>
@@ -28933,7 +28933,7 @@
       <c r="N4" s="113"/>
       <c r="O4" s="124"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="55">
         <v>3241101</v>
       </c>
@@ -28968,7 +28968,7 @@
       <c r="N5" s="113"/>
       <c r="O5" s="124"/>
     </row>
-    <row r="6" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="55">
         <v>3211129</v>
       </c>
@@ -29003,7 +29003,7 @@
       <c r="N6" s="113"/>
       <c r="O6" s="124"/>
     </row>
-    <row r="7" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>3821103</v>
       </c>
@@ -29038,7 +29038,7 @@
       <c r="N7" s="113"/>
       <c r="O7" s="124"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="55">
         <v>3211119</v>
       </c>
@@ -29073,7 +29073,7 @@
       <c r="N8" s="113"/>
       <c r="O8" s="124"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>3211120</v>
       </c>
@@ -29108,7 +29108,7 @@
       <c r="N9" s="113"/>
       <c r="O9" s="124"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>3211117</v>
       </c>
@@ -29143,7 +29143,7 @@
       <c r="N10" s="113"/>
       <c r="O10" s="124"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>3221104</v>
       </c>
@@ -29178,7 +29178,7 @@
       <c r="N11" s="113"/>
       <c r="O11" s="124"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="55">
         <v>3211115</v>
       </c>
@@ -29213,7 +29213,7 @@
       <c r="N12" s="113"/>
       <c r="O12" s="124"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>3211113</v>
       </c>
@@ -29248,7 +29248,7 @@
       <c r="N13" s="113"/>
       <c r="O13" s="124"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="55">
         <v>3243102</v>
       </c>
@@ -29283,7 +29283,7 @@
       <c r="N14" s="113"/>
       <c r="O14" s="124"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="55">
         <v>3243101</v>
       </c>
@@ -29318,7 +29318,7 @@
       <c r="N15" s="113"/>
       <c r="O15" s="124"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="55">
         <v>3221108</v>
       </c>
@@ -29353,7 +29353,7 @@
       <c r="N16" s="113"/>
       <c r="O16" s="124"/>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>3255102</v>
       </c>
@@ -29388,7 +29388,7 @@
       <c r="N17" s="113"/>
       <c r="O17" s="124"/>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A18" s="55">
         <v>3255104</v>
       </c>
@@ -29423,7 +29423,7 @@
       <c r="N18" s="113"/>
       <c r="O18" s="124"/>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A19" s="55">
         <v>3211127</v>
       </c>
@@ -29458,7 +29458,7 @@
       <c r="N19" s="113"/>
       <c r="O19" s="124"/>
     </row>
-    <row r="20" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="55">
         <v>3231201</v>
       </c>
@@ -29493,7 +29493,7 @@
       <c r="N20" s="113"/>
       <c r="O20" s="124"/>
     </row>
-    <row r="21" spans="1:63" s="119" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" s="119" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="55">
         <v>3231201</v>
       </c>
@@ -29582,7 +29582,7 @@
       <c r="BJ21" s="118"/>
       <c r="BK21" s="118"/>
     </row>
-    <row r="22" spans="1:63" s="119" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" s="119" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A22" s="55">
         <v>3231201</v>
       </c>
@@ -29671,7 +29671,7 @@
       <c r="BJ22" s="118"/>
       <c r="BK22" s="118"/>
     </row>
-    <row r="23" spans="1:63" s="119" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" s="119" customFormat="1" ht="51" x14ac:dyDescent="0.3">
       <c r="A23" s="55">
         <v>3231201</v>
       </c>
@@ -29760,7 +29760,7 @@
       <c r="BJ23" s="118"/>
       <c r="BK23" s="118"/>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A24" s="55">
         <v>3211109</v>
       </c>
@@ -29795,7 +29795,7 @@
       <c r="N24" s="113"/>
       <c r="O24" s="124"/>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>3256103</v>
       </c>
@@ -29830,7 +29830,7 @@
       <c r="N25" s="113"/>
       <c r="O25" s="124"/>
     </row>
-    <row r="26" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="55">
         <v>3257101</v>
       </c>
@@ -29873,7 +29873,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A27" s="56">
         <v>3111332</v>
       </c>
@@ -29908,7 +29908,7 @@
       <c r="N27" s="113"/>
       <c r="O27" s="124"/>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A28" s="56">
         <v>3111332</v>
       </c>
@@ -29943,7 +29943,7 @@
       <c r="N28" s="113"/>
       <c r="O28" s="124"/>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A29" s="56">
         <v>3111332</v>
       </c>
@@ -29978,7 +29978,7 @@
       <c r="N29" s="113"/>
       <c r="O29" s="124"/>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A30" s="55">
         <v>3257104</v>
       </c>
@@ -30013,7 +30013,7 @@
       <c r="N30" s="113"/>
       <c r="O30" s="124"/>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A31" s="55">
         <v>3255101</v>
       </c>
@@ -30048,7 +30048,7 @@
       <c r="N31" s="113"/>
       <c r="O31" s="124"/>
     </row>
-    <row r="32" spans="1:63" s="199" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" s="199" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="250">
         <v>3256101</v>
       </c>
@@ -30131,7 +30131,7 @@
       <c r="BJ32" s="198"/>
       <c r="BK32" s="198"/>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>3258101</v>
       </c>
@@ -30166,7 +30166,7 @@
       <c r="N33" s="113"/>
       <c r="O33" s="124"/>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
         <v>3258102</v>
       </c>
@@ -30201,7 +30201,7 @@
       <c r="N34" s="113"/>
       <c r="O34" s="124"/>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>3258103</v>
       </c>
@@ -30236,7 +30236,7 @@
       <c r="N35" s="113"/>
       <c r="O35" s="124"/>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A36" s="55">
         <v>3258105</v>
       </c>
@@ -30271,7 +30271,7 @@
       <c r="N36" s="113"/>
       <c r="O36" s="124"/>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>3258107</v>
       </c>
@@ -30306,7 +30306,7 @@
       <c r="N37" s="113"/>
       <c r="O37" s="124"/>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A38" s="55">
         <v>3258106</v>
       </c>
@@ -30341,7 +30341,7 @@
       <c r="N38" s="113"/>
       <c r="O38" s="124"/>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A39" s="55">
         <v>3258105</v>
       </c>
@@ -30376,7 +30376,7 @@
       <c r="N39" s="113"/>
       <c r="O39" s="124"/>
     </row>
-    <row r="40" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="54">
         <v>3258114</v>
       </c>
@@ -30419,7 +30419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A41" s="55">
         <v>3258128</v>
       </c>
@@ -30454,7 +30454,7 @@
       <c r="N41" s="113"/>
       <c r="O41" s="124"/>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A42" s="55">
         <v>3258107</v>
       </c>
@@ -30489,7 +30489,7 @@
       <c r="N42" s="113"/>
       <c r="O42" s="124"/>
     </row>
-    <row r="43" spans="1:63" s="199" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" s="199" customFormat="1" ht="67.2" x14ac:dyDescent="0.35">
       <c r="A43" s="242">
         <v>4112101</v>
       </c>
@@ -30572,7 +30572,7 @@
       <c r="BJ43" s="198"/>
       <c r="BK43" s="198"/>
     </row>
-    <row r="44" spans="1:63" s="199" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" s="199" customFormat="1" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A44" s="242">
         <v>4112101</v>
       </c>
@@ -30651,7 +30651,7 @@
       <c r="BJ44" s="198"/>
       <c r="BK44" s="198"/>
     </row>
-    <row r="45" spans="1:63" s="199" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" s="199" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="248">
         <v>4112102</v>
       </c>
@@ -30730,7 +30730,7 @@
       <c r="BJ45" s="198"/>
       <c r="BK45" s="198"/>
     </row>
-    <row r="46" spans="1:63" s="199" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" s="199" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="248">
         <v>4112316</v>
       </c>
@@ -30809,7 +30809,7 @@
       <c r="BJ46" s="198"/>
       <c r="BK46" s="198"/>
     </row>
-    <row r="47" spans="1:63" s="199" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" s="199" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A47" s="248">
         <v>4112316</v>
       </c>
@@ -30888,7 +30888,7 @@
       <c r="BJ47" s="198"/>
       <c r="BK47" s="198"/>
     </row>
-    <row r="48" spans="1:63" s="199" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63" s="199" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="248">
         <v>4112304</v>
       </c>
@@ -30967,7 +30967,7 @@
       <c r="BJ48" s="198"/>
       <c r="BK48" s="198"/>
     </row>
-    <row r="49" spans="1:63" s="199" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:63" s="199" customFormat="1" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A49" s="248">
         <v>4112304</v>
       </c>
@@ -31046,7 +31046,7 @@
       <c r="BJ49" s="198"/>
       <c r="BK49" s="198"/>
     </row>
-    <row r="50" spans="1:63" s="199" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:63" s="199" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A50" s="248">
         <v>4112304</v>
       </c>
@@ -31129,7 +31129,7 @@
       <c r="BJ50" s="198"/>
       <c r="BK50" s="198"/>
     </row>
-    <row r="51" spans="1:63" s="199" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:63" s="199" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A51" s="248">
         <v>4112202</v>
       </c>
@@ -31208,7 +31208,7 @@
       <c r="BJ51" s="198"/>
       <c r="BK51" s="198"/>
     </row>
-    <row r="52" spans="1:63" s="199" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:63" s="199" customFormat="1" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A52" s="248">
         <v>4112202</v>
       </c>
@@ -31287,7 +31287,7 @@
       <c r="BJ52" s="198"/>
       <c r="BK52" s="198"/>
     </row>
-    <row r="53" spans="1:63" s="199" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:63" s="199" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="248">
         <v>4112202</v>
       </c>
@@ -31366,7 +31366,7 @@
       <c r="BJ53" s="198"/>
       <c r="BK53" s="198"/>
     </row>
-    <row r="54" spans="1:63" s="199" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:63" s="199" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A54" s="248">
         <v>4112202</v>
       </c>
@@ -31445,7 +31445,7 @@
       <c r="BJ54" s="198"/>
       <c r="BK54" s="198"/>
     </row>
-    <row r="55" spans="1:63" s="199" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:63" s="199" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="242">
         <v>4112314</v>
       </c>
@@ -31524,7 +31524,7 @@
       <c r="BJ55" s="198"/>
       <c r="BK55" s="198"/>
     </row>
-    <row r="56" spans="1:63" s="199" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:63" s="199" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="242">
         <v>4112303</v>
       </c>
@@ -31607,7 +31607,7 @@
       <c r="BJ56" s="198"/>
       <c r="BK56" s="198"/>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A57" s="60">
         <v>4141101</v>
       </c>
@@ -31642,7 +31642,7 @@
       <c r="N57" s="113"/>
       <c r="O57" s="124"/>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A58" s="61">
         <v>4111306</v>
       </c>
@@ -31683,7 +31683,7 @@
       </c>
       <c r="O58" s="124"/>
     </row>
-    <row r="59" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A59" s="61">
         <v>4111307</v>
       </c>
@@ -31726,7 +31726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A60" s="61">
         <v>4111307</v>
       </c>
@@ -31769,7 +31769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A61" s="61">
         <v>4111307</v>
       </c>
@@ -31812,7 +31812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A62" s="58">
         <v>4111201</v>
       </c>
@@ -31855,7 +31855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A63" s="58">
         <v>4111201</v>
       </c>
@@ -31898,7 +31898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A64" s="58">
         <v>4111201</v>
       </c>
@@ -31941,7 +31941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A65" s="58">
         <v>4111201</v>
       </c>
@@ -31984,7 +31984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="58">
         <v>4111201</v>
       </c>
@@ -32027,7 +32027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="58">
         <v>4111201</v>
       </c>
@@ -32070,7 +32070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="58">
         <v>4111201</v>
       </c>
@@ -32109,7 +32109,7 @@
       <c r="N68" s="113"/>
       <c r="O68" s="124"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>296</v>
       </c>
@@ -32140,7 +32140,7 @@
       <c r="N69" s="113"/>
       <c r="O69" s="124"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>297</v>
       </c>
@@ -32171,7 +32171,7 @@
       <c r="N70" s="113"/>
       <c r="O70" s="124"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D71" s="189"/>
       <c r="E71" s="189"/>
       <c r="F71" s="189"/>
@@ -32179,15 +32179,15 @@
       <c r="H71" s="52"/>
       <c r="I71" s="52"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H72" s="52"/>
       <c r="I72" s="52"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H73" s="52"/>
       <c r="I73" s="52"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D74" s="71"/>
       <c r="E74" s="71"/>
       <c r="F74" s="71"/>
@@ -32195,7 +32195,7 @@
       <c r="H74" s="52"/>
       <c r="I74" s="52"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D75" s="71"/>
       <c r="E75" s="71"/>
       <c r="F75" s="71"/>
@@ -32203,7 +32203,7 @@
       <c r="H75" s="52"/>
       <c r="I75" s="52"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="71"/>
@@ -32211,7 +32211,7 @@
       <c r="H76" s="52"/>
       <c r="I76" s="52"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D77" s="71"/>
       <c r="E77" s="71"/>
       <c r="F77" s="71"/>
@@ -32219,7 +32219,7 @@
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D78" s="71"/>
       <c r="E78" s="71"/>
       <c r="F78" s="71"/>
@@ -32227,7 +32227,7 @@
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D79" s="71"/>
       <c r="E79" s="71"/>
       <c r="F79" s="71"/>
@@ -32253,13 +32253,13 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>223</v>
       </c>
@@ -32267,7 +32267,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>101</v>
       </c>
@@ -32278,7 +32278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>105</v>
       </c>
@@ -32289,7 +32289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>107</v>
       </c>
@@ -32300,7 +32300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>109</v>
       </c>
@@ -32311,7 +32311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>111</v>
       </c>
@@ -32322,7 +32322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>115</v>
       </c>
@@ -32333,7 +32333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>117</v>
       </c>
@@ -32344,7 +32344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>120</v>
       </c>
@@ -32355,7 +32355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>123</v>
       </c>
@@ -32366,7 +32366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>125</v>
       </c>
@@ -32377,7 +32377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>127</v>
       </c>
@@ -32388,7 +32388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>129</v>
       </c>
@@ -32399,7 +32399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>131</v>
       </c>
@@ -32410,7 +32410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>133</v>
       </c>
@@ -32421,7 +32421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>137</v>
       </c>
@@ -32432,7 +32432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>139</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>141</v>
       </c>
@@ -32454,7 +32454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>143</v>
       </c>
@@ -32465,7 +32465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>147</v>
       </c>
@@ -32476,7 +32476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>149</v>
       </c>
@@ -32487,7 +32487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>151</v>
       </c>
@@ -32498,7 +32498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>153</v>
       </c>
@@ -32509,7 +32509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>164</v>
       </c>
@@ -32520,7 +32520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>167</v>
       </c>
@@ -32531,7 +32531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>169</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>172</v>
       </c>
@@ -32553,7 +32553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>176</v>
       </c>
@@ -32564,7 +32564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>180</v>
       </c>
@@ -32575,7 +32575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>183</v>
       </c>
@@ -32586,7 +32586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>185</v>
       </c>
@@ -32597,7 +32597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>285</v>
       </c>
@@ -32608,7 +32608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>286</v>
       </c>
